--- a/xlsx/南非_intext.xlsx
+++ b/xlsx/南非_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1260">
   <si>
     <t>南非</t>
   </si>
@@ -29,13 +29,13 @@
     <t>南部非洲</t>
   </si>
   <si>
-    <t>政策_政策_美國_南非</t>
+    <t>政策_政策_美国_南非</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E8%AF%AD</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A8%81%E5%A3%AB%E8%AA%9E</t>
   </si>
   <si>
-    <t>斯威士語</t>
+    <t>斯威士语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%A2%E6%89%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>北索托語</t>
+    <t>北索托语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B4%A2%E6%89%98%E8%AF%AD</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E9%81%94%E8%AA%9E</t>
   </si>
   <si>
-    <t>文達語</t>
+    <t>文达语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>南非國旗</t>
+    <t>南非国旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E5%9B%BD%E5%BE%BD</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>南非國歌</t>
+    <t>南非国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>總統制</t>
+    <t>总统制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%96%E9%A6%AC</t>
   </si>
   <si>
-    <t>祖馬</t>
+    <t>祖马</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Deputy_President_of_South_Africa</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%87%8C%E7%88%BE%C2%B7%E6%8B%89%E9%A6%AC%E7%A6%8F%E8%96%A9</t>
   </si>
   <si>
-    <t>西里爾·拉馬福薩</t>
+    <t>西里尔·拉马福萨</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cyril_Ramaphosa</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>南非標準時間</t>
+    <t>南非标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8F%E8%B0%83%E4%B8%96%E7%95%8C%E6%97%B6</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>國會</t>
+    <t>国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E5%8E%86%E5%8F%B2</t>
@@ -497,25 +497,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%9C%96%E4%BA%BA</t>
   </si>
   <si>
-    <t>班圖人</t>
+    <t>班图人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E4%BA%BA</t>
   </si>
   <si>
-    <t>荷蘭人</t>
+    <t>荷兰人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%99%AE%E6%AE%96%E6%B0%91%E5%9C%B0</t>
   </si>
   <si>
-    <t>開普殖民地</t>
+    <t>开普殖民地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD%E6%B2%BB%E8%87%AA%E7%94%B1%E9%82%A6</t>
   </si>
   <si>
-    <t>奧蘭治自由邦</t>
+    <t>奥兰治自由邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%B0%E5%A3%AB%E7%93%A6%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -527,61 +527,58 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%B8%83%E7%88%BE%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第一次布爾戰爭</t>
+    <t>第一次布尔战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%B8%83%E7%88%BE%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第二次布爾戰爭</t>
+    <t>第二次布尔战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%99%AE%E7%9C%81</t>
   </si>
   <si>
-    <t>開普省</t>
+    <t>开普省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%98%AD%E5%A3%AB%E7%93%A6</t>
   </si>
   <si>
-    <t>德蘭士瓦</t>
+    <t>德兰士瓦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%A1%94%E7%88%BE%E7%9C%81</t>
   </si>
   <si>
-    <t>納塔爾省</t>
+    <t>纳塔尔省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>南非聯邦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>英聯邦</t>
+    <t>英联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>種族主義</t>
+    <t>种族主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E5%9C%8B%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>南非國民黨</t>
+    <t>南非国民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
   </si>
   <si>
-    <t>種族隔離</t>
+    <t>种族隔离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%BE%B7%E6%8B%89</t>
@@ -605,25 +602,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國大會</t>
+    <t>联合国大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%88%BE%E9%81%9C%C2%B7%E6%9B%BC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>納爾遜·曼德拉</t>
+    <t>纳尔逊·曼德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E4%BA%BA%E5%9C%8B%E6%B0%91%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>非洲人國民大會</t>
+    <t>非洲人国民大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%BB%A8%E7%8D%A8%E5%A4%A7</t>
   </si>
   <si>
-    <t>一黨獨大</t>
+    <t>一党独大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -635,15 +632,12 @@
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>2010年世界盃足球賽</t>
+    <t>2010年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
   </si>
   <si>
-    <t>总统制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BE%8B%E4%BB%A3%E8%A1%A8%E5%88%B6</t>
   </si>
   <si>
@@ -659,9 +653,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E4%BA%BA%E5%9B%BD%E6%B0%91%E5%A4%A7%E4%BC%9A</t>
   </si>
   <si>
-    <t>非洲人国民大会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E8%81%94%E7%9B%9F_(%E5%8D%97%E9%9D%9E)</t>
   </si>
   <si>
@@ -683,15 +674,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%99%AE%E7%9C%81</t>
   </si>
   <si>
-    <t>开普省</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%B0%E5%A3%AB%E7%93%A6</t>
   </si>
   <si>
-    <t>德兰士瓦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E9%82%A6%E7%9C%81</t>
   </si>
   <si>
@@ -701,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%96%8B%E6%99%AE%E7%9C%81</t>
   </si>
   <si>
-    <t>北開普省</t>
+    <t>北开普省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BC%80%E6%99%AE%E7%9C%81</t>
@@ -713,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%96%8B%E6%99%AE%E7%9C%81</t>
   </si>
   <si>
-    <t>東開普省</t>
+    <t>东开普省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E7%9C%81_(%E5%8D%97%E9%9D%9E)</t>
@@ -743,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B8%E7%A5%96%E9%AD%AF-%E7%B4%8D%E5%A1%94%E7%88%BE%E7%9C%81</t>
   </si>
   <si>
-    <t>夸祖魯-納塔爾省</t>
+    <t>夸祖鲁-纳塔尔省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%A9%AC%E5%85%B0%E5%8A%A0%E7%9C%81</t>
@@ -761,9 +746,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B8%E7%A5%96%E9%B2%81-%E7%BA%B3%E5%A1%94%E5%B0%94%E7%9C%81</t>
   </si>
   <si>
-    <t>夸祖鲁-纳塔尔省</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%E9%A9%AC%E9%87%8C%E8%8C%A8%E5%A0%A1</t>
   </si>
   <si>
@@ -785,15 +767,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E5%85%8B%E7%93%A6%E5%B0%BC</t>
   </si>
   <si>
-    <t>波羅克瓦尼</t>
+    <t>波罗克瓦尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%99%AE%E6%95%A6</t>
   </si>
   <si>
-    <t>開普敦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E5%AF%8C%E6%A0%B9</t>
   </si>
   <si>
@@ -821,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%AC%E5%BA%A6</t>
@@ -875,25 +854,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%E7%8E%8B%E5%AD%90%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>愛德華王子群島</t>
+    <t>爱德华王子群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B1%B3%E6%AF%94%E4%BA%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>納米比亞共和國</t>
+    <t>纳米比亚共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%B4%8D%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>博茨瓦納共和國</t>
+    <t>博茨瓦纳共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%8B%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>津巴布韋共和國</t>
+    <t>津巴布韦共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%A1%91%E6%AF%94%E5%85%8B%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -935,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E5%B1%B1%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>龍山山脈</t>
+    <t>龙山山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%98%E6%B2%B3</t>
@@ -947,7 +926,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%88%BE%E6%B2%B3</t>
   </si>
   <si>
-    <t>瓦爾河</t>
+    <t>瓦尔河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%83%AD%E5%B8%A6%E6%B9%BF%E6%B6%A6%E6%B0%94%E5%80%99</t>
@@ -965,15 +944,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%9E%8B%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>地中海型氣候</t>
+    <t>地中海型气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E5%85%A7%E6%96%AF%E5%A0%A1</t>
   </si>
   <si>
-    <t>約翰內斯堡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -983,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E8%A5%BF%E7%B4%8D_(%E6%9E%97%E6%B3%A2%E6%B3%A2%E7%9C%81)</t>
   </si>
   <si>
-    <t>穆西納 (林波波省)</t>
+    <t>穆西纳 (林波波省)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%E6%96%AF%E5%A0%A1</t>
@@ -995,31 +971,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E7%88%BE%E7%A7%91%E5%A7%86</t>
   </si>
   <si>
-    <t>韋爾科姆</t>
+    <t>韦尔科姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E8%BF%AA%E5%8F%B2%E5%AF%86%E6%96%AF</t>
   </si>
   <si>
-    <t>萊迪史密斯</t>
+    <t>莱迪史密斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%98%BF%E7%88%BE</t>
   </si>
   <si>
-    <t>德阿爾</t>
+    <t>德阿尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%86%E5%A3%AB%E6%95%A6_(%E6%9D%B1%E9%96%8B%E6%99%AE%E7%9C%81)</t>
   </si>
   <si>
-    <t>昆士敦 (東開普省)</t>
+    <t>昆士敦 (东开普省)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%80%AB%E6%95%A6</t>
   </si>
   <si>
-    <t>東倫敦</t>
+    <t>东伦敦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E4%B8%BD%E8%8E%8E%E7%99%BD%E6%B8%AF</t>
@@ -1031,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%A1%9E%E7%88%BE%E8%B2%9D</t>
   </si>
   <si>
-    <t>莫塞爾貝</t>
+    <t>莫塞尔贝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%9A%E7%A6%8F%E7%89%B9</t>
@@ -1049,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>卡爾維尼亞</t>
+    <t>卡尔维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%99%AE%E6%9E%97%E5%8D%9A%E5%85%8B</t>
@@ -1061,19 +1037,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E6%B4%9B%E6%96%AF%E6%B8%AF</t>
   </si>
   <si>
-    <t>諾洛斯港</t>
+    <t>诺洛斯港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B9%B3%E9%80%9A</t>
   </si>
   <si>
-    <t>烏平通</t>
+    <t>乌平通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>南非經濟</t>
+    <t>南非经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E5%B1%95%E4%B8%AD%E5%9B%BD%E5%AE%B6</t>
@@ -1085,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國民生產總值</t>
+    <t>国民生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E5%87%86%E9%93%B6%E8%A1%8C</t>
@@ -1097,31 +1073,28 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%BB%8B%E7%97%85</t>
   </si>
   <si>
-    <t>愛滋病</t>
+    <t>爱滋病</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%9D%87%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>人均國內生產總值</t>
+    <t>人均国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95%E4%B8%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>發展中國家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E7%89%B9</t>
   </si>
   <si>
-    <t>蘭特</t>
+    <t>兰特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%BF%E7%BE%8A</t>
   </si>
   <si>
-    <t>綿羊</t>
+    <t>绵羊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A5%B4%E7%BE%8A</t>
@@ -1133,7 +1106,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%97%A4%E5%97%A4%E8%A0%85</t>
   </si>
   <si>
-    <t>嗤嗤蠅</t>
+    <t>嗤嗤蝇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B3%E7%89%9B</t>
@@ -1169,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E5%AD%90</t>
   </si>
   <si>
-    <t>種子</t>
+    <t>种子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91</t>
@@ -1181,13 +1154,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%89%BB</t>
   </si>
   <si>
-    <t>鉻</t>
+    <t>铬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%91%BD%E7%9F%B3</t>
   </si>
   <si>
-    <t>鑽石</t>
+    <t>钻石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%87%91</t>
@@ -1199,19 +1172,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A2%B0</t>
   </si>
   <si>
-    <t>機械</t>
+    <t>机械</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>重工業</t>
+    <t>重工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%B7%B4%E6%B4%A5%E6%AF%94</t>
@@ -1223,7 +1196,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%90%B5%E7%A4%A6</t>
   </si>
   <si>
-    <t>赤鐵礦</t>
+    <t>赤铁矿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A6%E7%82%AD</t>
@@ -1241,7 +1214,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%89%B9%E9%A6%AC%E6%96%AF%E5%A0%A1</t>
   </si>
   <si>
-    <t>波斯特馬斯堡</t>
+    <t>波斯特马斯堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E5%BE%B7</t>
@@ -1253,7 +1226,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E8%BB%8A%E9%A0%AD</t>
   </si>
   <si>
-    <t>火車頭</t>
+    <t>火车头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%B9%E8%88%B6</t>
@@ -1277,19 +1250,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%A1%E8%86%A0</t>
   </si>
   <si>
-    <t>橡膠</t>
+    <t>橡胶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A1%E7%B9%94</t>
   </si>
   <si>
-    <t>紡織</t>
+    <t>纺织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E5%BE%B7%E6%96%B9%E5%9D%A6</t>
   </si>
   <si>
-    <t>蘭德方坦</t>
+    <t>兰德方坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2001%E5%B9%B4%E5%8D%97%E9%9D%9E%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
@@ -1301,31 +1274,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B6%AD%E6%96%AF%E7%81%A3</t>
   </si>
   <si>
-    <t>華維斯灣</t>
+    <t>华维斯湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E5%9C%96%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>班圖斯坦</t>
+    <t>班图斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B3%B0%E5%80%AB%E5%8D%9A%E6%96%AF</t>
   </si>
   <si>
-    <t>斯泰倫博斯</t>
+    <t>斯泰伦博斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%98%BF%E7%88%BE</t>
   </si>
   <si>
-    <t>帕阿爾</t>
+    <t>帕阿尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%95%E5%A9%A6</t>
   </si>
   <si>
-    <t>孕婦</t>
+    <t>孕妇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E5%B9%B4%E4%BA%BA</t>
@@ -1343,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E9%A4%8A%E4%B8%8D%E8%89%AF</t>
   </si>
   <si>
-    <t>營養不良</t>
+    <t>营养不良</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%AB%E5%9B%B0</t>
@@ -1361,31 +1334,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E5%9E%8B%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>轉型正義</t>
+    <t>转型正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E9%9D%9E%E6%B4%B2%E4%BA%BA%E5%9C%8B%E6%B0%91%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>南非非洲人國民大會</t>
+    <t>南非非洲人国民大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>非洲聯盟</t>
+    <t>非洲联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%83%A8%E9%9D%9E%E6%B4%B2%E5%8F%91%E5%B1%95%E5%85%B1%E5%90%8C%E4%BD%93</t>
@@ -1397,7 +1370,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%B5%90%E7%9B%9F%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>不結盟運動</t>
+    <t>不结盟运动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Khoi_languages</t>
@@ -1475,7 +1448,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
   </si>
   <si>
-    <t>南非種族隔離</t>
+    <t>南非种族隔离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E4%BA%A4%E9%80%9A</t>
@@ -1571,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
@@ -1589,7 +1562,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
@@ -1625,7 +1598,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
@@ -1655,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
@@ -1697,7 +1670,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -1853,7 +1826,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
@@ -1883,7 +1856,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E7%BE%A4%E5%B2%9B</t>
@@ -1907,7 +1880,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>馬德拉</t>
+    <t>马德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BA%A6%E7%89%B9</t>
@@ -1973,7 +1946,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8D%80%E7%B4%A2%E5%BC%95</t>
   </si>
   <si>
-    <t>世界政區索引</t>
+    <t>世界政区索引</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -2045,9 +2018,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
   </si>
   <si>
@@ -2195,9 +2165,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>聯合國安全理事會否決權</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%B0%94%E5%A1%94%E4%BC%9A%E8%AE%AE</t>
   </si>
   <si>
@@ -2213,7 +2180,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%87%E8%81%AF%E5%90%88%E5%9C%8B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>中國與聯合國關係</t>
+    <t>中国与联合国关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
@@ -2225,7 +2192,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>四國聯盟</t>
+    <t>四国联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%94%B9%E9%9D%A9</t>
@@ -2237,15 +2204,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B_(%E5%A4%A7%E9%99%B8%E6%99%82%E6%9C%9F)</t>
   </si>
   <si>
-    <t>中華民國 (大陸時期)</t>
+    <t>中华民国 (大陆时期)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
@@ -2261,13 +2225,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -2279,19 +2240,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -2309,9 +2270,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%94%E9%82%A6</t>
   </si>
   <si>
-    <t>英联邦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
@@ -2357,7 +2315,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
@@ -2429,7 +2387,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -2465,25 +2423,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%8A%A0</t>
   </si>
   <si>
-    <t>湯加</t>
+    <t>汤加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E7%9B%A7</t>
   </si>
   <si>
-    <t>圖瓦盧</t>
+    <t>图瓦卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
@@ -2501,7 +2459,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BB%80%E6%91%A9%E5%8F%8A%E5%8D%A1%E5%9C%B0%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞什摩及卡地爾群島</t>
+    <t>亚什摩及卡地尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
@@ -2531,7 +2489,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E5%BE%97%E5%8F%8A%E9%BA%A5%E5%94%90%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>賀得及麥唐納群島</t>
+    <t>贺得及麦唐纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E7%A6%8F%E5%85%8B%E5%B2%9B</t>
@@ -2549,7 +2507,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
+    <t>纽埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E5%B1%9E%E5%9C%B0</t>
@@ -2591,9 +2549,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A2%86%E5%9C%B0</t>
   </si>
   <si>
-    <t>英属印度洋领地</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E7%BB%B4%E5%B0%94%E4%BA%AC%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -2639,7 +2594,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%AF%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
@@ -2657,7 +2612,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B3%B6%E8%88%87%E5%8D%97%E6%A1%91%E5%A8%81%E5%A5%87%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>南喬治亞島與南桑威奇群島</t>
+    <t>南乔治亚岛与南桑威奇群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E4%B8%8E%E5%87%AF%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
@@ -2675,21 +2630,18 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾巴尼亞</t>
+    <t>阿尔巴尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
   </si>
   <si>
@@ -2705,25 +2657,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%B2%9D%E5%A4%9A</t>
   </si>
   <si>
-    <t>巴貝多</t>
+    <t>巴贝多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E9%87%8C%E6%96%AF</t>
   </si>
   <si>
-    <t>貝里斯</t>
+    <t>贝里斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%8D%97</t>
   </si>
   <si>
-    <t>貝南</t>
+    <t>贝南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8</t>
@@ -2735,9 +2687,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E9%BA%A5%E9%9A%86</t>
   </si>
   <si>
-    <t>喀麥隆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%88%A9</t>
   </si>
   <si>
@@ -2747,15 +2696,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E5%A4%A7%E9%BB%8E%E5%8A%A0</t>
   </si>
   <si>
@@ -2771,7 +2717,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>克羅埃西亞</t>
+    <t>克罗埃西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -2783,9 +2729,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B8%83%E5%9C%B0</t>
   </si>
   <si>
@@ -2801,7 +2744,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A</t>
@@ -2813,25 +2756,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%BF%9F</t>
   </si>
   <si>
-    <t>斐濟</t>
+    <t>斐济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%BD%AD</t>
@@ -2843,7 +2786,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>甘比亞</t>
+    <t>甘比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
@@ -2855,25 +2798,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E7%B4%8D</t>
   </si>
   <si>
-    <t>迦納</t>
+    <t>迦纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%91%9E%E9%82%A3%E9%81%94</t>
   </si>
   <si>
-    <t>格瑞那達</t>
+    <t>格瑞那达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%9C%B0%E9%A6%AC%E6%8B%89</t>
   </si>
   <si>
-    <t>瓜地馬拉</t>
+    <t>瓜地马拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>蓋亞那</t>
+    <t>盖亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
@@ -2897,13 +2840,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>印度尼西亞</t>
+    <t>印度尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -2915,19 +2858,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E8%B2%B7%E5%8A%A0</t>
   </si>
   <si>
-    <t>牙買加</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
+    <t>约旦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E4%BA%9E</t>
   </si>
   <si>
-    <t>肯亞</t>
+    <t>肯亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
@@ -2939,7 +2879,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
   </si>
   <si>
-    <t>吉爾吉斯</t>
+    <t>吉尔吉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E6%96%AF%E7%99%BB</t>
@@ -2951,43 +2891,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%81%94%E5%8A%A0%E6%96%AF%E5%8A%A0</t>
   </si>
   <si>
-    <t>馬達加斯加</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E7%B6%AD</t>
   </si>
   <si>
-    <t>馬拉維</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB</t>
   </si>
   <si>
-    <t>馬爾地夫</t>
+    <t>马尔地夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E5%88%A9%E5%A1%94%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>茅利塔尼亞</t>
+    <t>茅利塔尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E9%87%8C%E8%A5%BF%E6%96%AF</t>
@@ -3005,7 +2933,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9C%8B</t>
   </si>
   <si>
-    <t>蒙古國</t>
+    <t>蒙古国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E4%B8%89%E6%AF%94%E5%85%8B</t>
@@ -3017,25 +2945,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B1%B3%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>納米比亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE</t>
   </si>
   <si>
-    <t>尼泊爾</t>
+    <t>尼泊尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
@@ -3065,13 +2990,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A6%AC</t>
   </si>
   <si>
-    <t>巴拿馬</t>
+    <t>巴拿马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E4%BA%9E%E7%B4%90%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>巴布亞紐幾內亞</t>
+    <t>巴布亚纽几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -3089,61 +3014,58 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%AE%89%E9%81%94</t>
   </si>
   <si>
-    <t>盧安達</t>
+    <t>卢安达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E5%8F%8A%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福及尼維斯</t>
+    <t>圣克里斯多福及尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%9C%B2%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>聖露西亞</t>
+    <t>圣露西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E6%A3%AE</t>
   </si>
   <si>
-    <t>聖文森</t>
+    <t>圣文森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%85%A7%E5%8A%A0%E7%88%BE</t>
   </si>
   <si>
-    <t>塞內加爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%BE%85%E9%96%80%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>索羅門群島</t>
+    <t>索罗门群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -3155,39 +3077,33 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E6%BE%8E%E9%87%91%E9%A6%AC%E5%80%8B%E5%88%A5%E9%97%9C%E7%A8%85%E9%A0%98%E5%9F%9F</t>
   </si>
   <si>
-    <t>臺澎金馬個別關稅領域</t>
+    <t>台澎金马个别关税领域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B0%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>坦尚尼亞</t>
+    <t>坦尚尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B9%B2%E9%81%94</t>
   </si>
   <si>
-    <t>烏干達</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
   </si>
   <si>
-    <t>烏拉圭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
@@ -3203,7 +3119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
@@ -3215,7 +3131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%BE%B7%E8%A7%92</t>
   </si>
   <si>
-    <t>維德角</t>
+    <t>维德角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9</t>
@@ -3227,13 +3143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
+    <t>保加利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B</t>
@@ -3251,37 +3167,31 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>愛沙尼亞</t>
+    <t>爱沙尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
+    <t>芬兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
@@ -3293,13 +3203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -3311,49 +3221,46 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>盧森堡</t>
+    <t>卢森堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
   </si>
   <si>
-    <t>荷兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
+    <t>库拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -3365,7 +3272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
@@ -3377,7 +3284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -3389,25 +3296,22 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
   </si>
   <si>
-    <t>中華臺北</t>
+    <t>中华台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%90%88%E4%BD%9C%E8%88%87%E7%99%BC%E5%B1%95%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>經濟合作與發展組織</t>
+    <t>经济合作与发展组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
   </si>
   <si>
-    <t>比利时</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>俄羅斯聯邦</t>
+    <t>俄罗斯联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%96%AF%E8%BE%BE%E9%BB%8E%E5%8A%A0</t>
@@ -3425,15 +3329,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A</t>
   </si>
   <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%BB%93%E7%9B%9F%E8%BF%90%E5%8A%A8</t>
   </si>
   <si>
-    <t>不结盟运动</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
   </si>
   <si>
@@ -3455,9 +3353,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
   </si>
   <si>
-    <t>伯利茲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
   </si>
   <si>
@@ -3479,9 +3374,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
   </si>
   <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
@@ -3497,9 +3389,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%90%E6%B5%8E</t>
   </si>
   <si>
-    <t>斐济</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
   </si>
   <si>
@@ -3533,9 +3422,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E6%97%A6</t>
   </si>
   <si>
-    <t>约旦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
   </si>
   <si>
@@ -3557,21 +3443,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD</t>
   </si>
   <si>
-    <t>蒙古国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
   </si>
   <si>
-    <t>缅甸</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94</t>
   </si>
   <si>
-    <t>尼泊尔</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
@@ -3581,15 +3458,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
   </si>
   <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
   </si>
   <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%A1%94%E5%B0%94</t>
   </si>
   <si>
@@ -3599,9 +3470,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
@@ -3611,9 +3479,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9B%BD</t>
   </si>
   <si>
-    <t>泰国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B8%9D%E6%B1%B6</t>
   </si>
   <si>
@@ -3641,9 +3506,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%97%A8</t>
   </si>
   <si>
@@ -3659,9 +3521,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
@@ -3671,7 +3530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
@@ -3689,15 +3548,9 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
   </si>
   <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%81%94%E7%9B%9F</t>
   </si>
   <si>
-    <t>非洲联盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
   </si>
   <si>
@@ -3809,7 +3662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%EF%BC%8D%E5%8D%B0%E5%BA%A6%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>中國－印度關係</t>
+    <t>中国－印度关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BF%84%E5%85%B3%E7%B3%BB</t>
@@ -3869,19 +3722,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E7%A3%9A%E5%9C%8B%E5%AE%B6U-17%E8%B6%B3%E7%90%83%E7%9B%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>金磚國家U-17足球盃賽</t>
+    <t>金砖国家U-17足球杯赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4%E9%87%91%E7%A3%9A%E5%9C%8B%E5%AE%B6U-17%E8%B6%B3%E7%90%83%E7%9B%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>2016年金磚國家U-17足球盃賽</t>
+    <t>2016年金砖国家U-17足球杯赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3899,7 +3752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -3911,7 +3764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3923,19 +3776,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -6922,7 +6775,7 @@
         <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -6948,10 +6801,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -6977,10 +6830,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -7006,10 +6859,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
@@ -7035,10 +6888,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>8</v>
@@ -7064,10 +6917,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>5</v>
@@ -7093,10 +6946,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -7122,10 +6975,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -7151,10 +7004,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -7180,10 +7033,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -7209,10 +7062,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -7238,10 +7091,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -7267,10 +7120,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>4</v>
@@ -7296,10 +7149,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -7325,10 +7178,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -7354,10 +7207,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -7412,10 +7265,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -7441,10 +7294,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -7470,10 +7323,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -7499,10 +7352,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -7528,10 +7381,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -7557,10 +7410,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>174</v>
       </c>
       <c r="G113" t="n">
         <v>7</v>
@@ -7586,10 +7439,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>176</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -7644,10 +7497,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G116" t="n">
         <v>3</v>
@@ -7673,10 +7526,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -7702,10 +7555,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -7731,10 +7584,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -7760,10 +7613,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -7789,10 +7642,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -7818,10 +7671,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -7847,10 +7700,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -7876,10 +7729,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7905,10 +7758,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -7934,10 +7787,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -7963,10 +7816,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7992,10 +7845,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -8021,10 +7874,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>5</v>
@@ -8050,10 +7903,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -8079,10 +7932,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -8108,10 +7961,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>42</v>
       </c>
       <c r="G132" t="n">
         <v>6</v>
@@ -8137,10 +7990,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -8166,10 +8019,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -8195,10 +8048,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -8224,10 +8077,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -8253,10 +8106,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -8282,10 +8135,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -8311,10 +8164,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -8340,10 +8193,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -8369,10 +8222,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -8398,10 +8251,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G142" t="n">
         <v>7</v>
@@ -8427,10 +8280,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -8456,10 +8309,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -8485,10 +8338,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -8514,10 +8367,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -8543,10 +8396,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -8572,10 +8425,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -8601,10 +8454,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -8630,10 +8483,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -8659,10 +8512,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -8688,10 +8541,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -8717,10 +8570,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -8746,10 +8599,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -8775,10 +8628,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -8804,10 +8657,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -8833,10 +8686,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -8862,10 +8715,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -8891,10 +8744,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -8920,10 +8773,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G160" t="n">
         <v>5</v>
@@ -8949,10 +8802,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -8978,10 +8831,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -9007,10 +8860,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -9036,10 +8889,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -9065,10 +8918,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -9094,10 +8947,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -9123,10 +8976,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -9152,10 +9005,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -9181,10 +9034,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -9210,10 +9063,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -9239,10 +9092,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -9268,10 +9121,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -9297,10 +9150,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -9326,10 +9179,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -9355,10 +9208,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -9384,10 +9237,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -9413,10 +9266,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -9442,10 +9295,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -9471,10 +9324,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -9500,10 +9353,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -9529,10 +9382,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -9558,10 +9411,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -9587,10 +9440,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F183" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -9616,10 +9469,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -9645,10 +9498,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -9674,10 +9527,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9703,10 +9556,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -9732,10 +9585,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -9761,10 +9614,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9790,10 +9643,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -9819,10 +9672,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -9848,10 +9701,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -9877,10 +9730,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9906,10 +9759,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9935,10 +9788,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9964,10 +9817,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9993,10 +9846,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G197" t="n">
         <v>16</v>
@@ -10022,10 +9875,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -10051,10 +9904,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G199" t="n">
         <v>3</v>
@@ -10080,10 +9933,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -10109,10 +9962,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G201" t="n">
         <v>4</v>
@@ -10138,10 +9991,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G202" t="n">
         <v>6</v>
@@ -10167,10 +10020,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -10196,10 +10049,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -10225,10 +10078,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -10254,10 +10107,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -10283,10 +10136,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -10312,10 +10165,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -10341,10 +10194,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -10370,10 +10223,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -10399,10 +10252,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -10428,10 +10281,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="F212" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -10457,10 +10310,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F213" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -10486,10 +10339,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F214" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -10515,10 +10368,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="F215" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -10544,10 +10397,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F216" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -10573,10 +10426,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -10602,10 +10455,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="F218" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -10631,10 +10484,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F219" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -10660,10 +10513,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10689,10 +10542,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="F221" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -10718,10 +10571,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F222" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -10747,10 +10600,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F223" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G223" t="n">
         <v>3</v>
@@ -10776,10 +10629,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F224" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -10805,10 +10658,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F225" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10834,10 +10687,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F226" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -10863,10 +10716,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F227" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10892,10 +10745,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F228" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10921,10 +10774,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F229" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="G229" t="n">
         <v>3</v>
@@ -10950,10 +10803,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F230" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10979,10 +10832,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="F231" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -11008,10 +10861,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F232" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -11037,10 +10890,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="F233" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -11066,10 +10919,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F234" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -11095,10 +10948,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F235" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -11124,10 +10977,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="F236" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -11153,10 +11006,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F237" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -11182,10 +11035,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F238" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -11211,10 +11064,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F239" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -11240,10 +11093,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="F240" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -11269,10 +11122,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F241" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -11298,10 +11151,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F242" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -11327,10 +11180,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="F243" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -11356,10 +11209,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="F244" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -11385,10 +11238,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -11414,10 +11267,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -11443,10 +11296,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -11472,10 +11325,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -11501,10 +11354,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -11530,10 +11383,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11559,10 +11412,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11588,10 +11441,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F252" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -11617,10 +11470,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="F253" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -11646,10 +11499,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F254" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11675,10 +11528,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="F255" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11704,10 +11557,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="F256" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G256" t="n">
         <v>11</v>
@@ -11733,10 +11586,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="F257" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11762,10 +11615,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F258" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -11791,10 +11644,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F259" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="G259" t="n">
         <v>5</v>
@@ -11820,10 +11673,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F260" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -11849,10 +11702,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F261" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G261" t="n">
         <v>4</v>
@@ -11878,10 +11731,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F262" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="G262" t="n">
         <v>3</v>
@@ -11907,10 +11760,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F263" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -11936,10 +11789,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F264" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11965,10 +11818,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="F265" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -11994,10 +11847,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="F266" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -12023,10 +11876,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F267" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G267" t="n">
         <v>3</v>
@@ -12052,10 +11905,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="F268" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -12081,10 +11934,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="F269" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -12110,10 +11963,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F270" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="G270" t="n">
         <v>3</v>
@@ -12139,10 +11992,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F271" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="G271" t="n">
         <v>5</v>
@@ -12168,10 +12021,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F272" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -12197,10 +12050,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F273" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -12226,10 +12079,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F274" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G274" t="n">
         <v>4</v>
@@ -12255,10 +12108,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F275" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -12284,10 +12137,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F276" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -12313,10 +12166,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F277" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="G277" t="n">
         <v>3</v>
@@ -12342,10 +12195,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F278" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="G278" t="n">
         <v>3</v>
@@ -12371,10 +12224,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F279" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G279" t="n">
         <v>4</v>
@@ -12400,10 +12253,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F280" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G280" t="n">
         <v>3</v>
@@ -12429,10 +12282,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F281" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -12458,10 +12311,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F282" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -12487,10 +12340,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F283" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G283" t="n">
         <v>3</v>
@@ -12516,10 +12369,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F284" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G284" t="n">
         <v>3</v>
@@ -12545,10 +12398,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F285" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -12574,10 +12427,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="F286" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -12603,10 +12456,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F287" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G287" t="n">
         <v>3</v>
@@ -12632,10 +12485,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F288" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12661,10 +12514,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F289" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -12690,10 +12543,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F290" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G290" t="n">
         <v>3</v>
@@ -12719,10 +12572,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="F291" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G291" t="n">
         <v>3</v>
@@ -12748,10 +12601,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F292" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -12777,10 +12630,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F293" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G293" t="n">
         <v>4</v>
@@ -12806,10 +12659,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F294" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G294" t="n">
         <v>3</v>
@@ -12835,10 +12688,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F295" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G295" t="n">
         <v>3</v>
@@ -12864,10 +12717,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F296" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G296" t="n">
         <v>5</v>
@@ -12893,10 +12746,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F297" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G297" t="n">
         <v>4</v>
@@ -12922,10 +12775,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F298" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G298" t="n">
         <v>4</v>
@@ -12951,10 +12804,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F299" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G299" t="n">
         <v>3</v>
@@ -12980,10 +12833,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F300" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="G300" t="n">
         <v>5</v>
@@ -13009,10 +12862,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F301" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -13038,10 +12891,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F302" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -13067,10 +12920,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F303" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -13096,10 +12949,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="F304" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -13125,10 +12978,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F305" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G305" t="n">
         <v>2</v>
@@ -13154,10 +13007,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F306" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -13183,10 +13036,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F307" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G307" t="n">
         <v>3</v>
@@ -13212,10 +13065,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F308" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G308" t="n">
         <v>3</v>
@@ -13241,10 +13094,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F309" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="G309" t="n">
         <v>3</v>
@@ -13270,10 +13123,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F310" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -13299,10 +13152,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F311" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="G311" t="n">
         <v>4</v>
@@ -13328,10 +13181,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F312" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="G312" t="n">
         <v>3</v>
@@ -13357,10 +13210,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F313" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G313" t="n">
         <v>4</v>
@@ -13386,10 +13239,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F314" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -13415,10 +13268,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F315" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -13444,10 +13297,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F316" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -13473,10 +13326,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F317" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -13502,10 +13355,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F318" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -13531,10 +13384,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F319" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -13560,10 +13413,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F320" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -13589,10 +13442,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F321" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13618,10 +13471,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F322" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -13647,10 +13500,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F323" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -13676,10 +13529,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F324" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13705,10 +13558,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F325" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13734,10 +13587,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F326" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13763,10 +13616,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="F327" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -13792,10 +13645,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F328" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13821,10 +13674,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F329" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -13850,10 +13703,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F330" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13879,10 +13732,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="F331" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13908,10 +13761,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="F332" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13937,10 +13790,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="F333" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13966,10 +13819,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="F334" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="G334" t="n">
         <v>2</v>
@@ -13995,10 +13848,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="F335" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -14024,10 +13877,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F336" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -14053,10 +13906,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="F337" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -14082,10 +13935,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F338" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="G338" t="n">
         <v>3</v>
@@ -14111,10 +13964,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="F339" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="G339" t="n">
         <v>5</v>
@@ -14140,10 +13993,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="F340" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="G340" t="n">
         <v>10</v>
@@ -14169,10 +14022,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="F341" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="G341" t="n">
         <v>4</v>
@@ -14198,10 +14051,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="F342" t="s">
-        <v>676</v>
+        <v>443</v>
       </c>
       <c r="G342" t="n">
         <v>16</v>
@@ -14227,10 +14080,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="F343" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -14256,10 +14109,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="F344" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="G344" t="n">
         <v>5</v>
@@ -14285,10 +14138,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="F345" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -14314,10 +14167,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="F346" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="G346" t="n">
         <v>24</v>
@@ -14343,10 +14196,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="F347" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -14372,10 +14225,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="F348" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="G348" t="n">
         <v>2</v>
@@ -14401,10 +14254,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F349" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="G349" t="n">
         <v>5</v>
@@ -14430,10 +14283,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F350" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="G350" t="n">
         <v>4</v>
@@ -14459,10 +14312,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F351" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="G351" t="n">
         <v>7</v>
@@ -14488,10 +14341,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="F352" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="G352" t="n">
         <v>2</v>
@@ -14517,10 +14370,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F353" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14546,10 +14399,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="F354" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="G354" t="n">
         <v>3</v>
@@ -14575,10 +14428,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F355" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="G355" t="n">
         <v>3</v>
@@ -14604,10 +14457,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="F356" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="G356" t="n">
         <v>5</v>
@@ -14633,10 +14486,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F357" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="G357" t="n">
         <v>2</v>
@@ -14662,10 +14515,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="F358" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14691,10 +14544,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="F359" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="G359" t="n">
         <v>3</v>
@@ -14720,10 +14573,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="F360" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14749,10 +14602,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="F361" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14778,10 +14631,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="F362" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -14807,10 +14660,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="F363" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14836,10 +14689,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="F364" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -14865,10 +14718,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="F365" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14894,10 +14747,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F366" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -14923,10 +14776,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="F367" t="s">
-        <v>726</v>
+        <v>698</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14952,10 +14805,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="F368" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14981,10 +14834,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="F369" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -15010,10 +14863,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="F370" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -15039,10 +14892,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="F371" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -15068,10 +14921,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="F372" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -15097,10 +14950,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="F373" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -15126,10 +14979,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="F374" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="G374" t="n">
         <v>4</v>
@@ -15155,10 +15008,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F375" t="s">
-        <v>742</v>
+        <v>692</v>
       </c>
       <c r="G375" t="n">
         <v>5</v>
@@ -15184,10 +15037,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
       <c r="F376" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
       <c r="G376" t="n">
         <v>11</v>
@@ -15213,10 +15066,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="F377" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -15242,10 +15095,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="F378" t="s">
-        <v>748</v>
+        <v>684</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -15271,10 +15124,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F379" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -15300,10 +15153,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="F380" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -15329,10 +15182,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="F381" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -15358,10 +15211,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="F382" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="G382" t="n">
         <v>2</v>
@@ -15387,10 +15240,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="F383" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -15416,10 +15269,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="F384" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -15445,10 +15298,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="F385" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="G385" t="n">
         <v>2</v>
@@ -15474,10 +15327,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="F386" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="G386" t="n">
         <v>3</v>
@@ -15503,10 +15356,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="F387" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -15532,10 +15385,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="F388" t="s">
-        <v>764</v>
+        <v>181</v>
       </c>
       <c r="G388" t="n">
         <v>3</v>
@@ -15561,10 +15414,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="F389" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -15590,10 +15443,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="F390" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="G390" t="n">
         <v>3</v>
@@ -15619,10 +15472,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="F391" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="G391" t="n">
         <v>2</v>
@@ -15648,10 +15501,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="F392" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="G392" t="n">
         <v>3</v>
@@ -15677,10 +15530,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="F393" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="G393" t="n">
         <v>2</v>
@@ -15706,10 +15559,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="F394" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -15735,10 +15588,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="F395" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G395" t="n">
         <v>2</v>
@@ -15764,10 +15617,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="F396" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15793,10 +15646,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="F397" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="G397" t="n">
         <v>2</v>
@@ -15822,10 +15675,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="F398" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="G398" t="n">
         <v>2</v>
@@ -15851,10 +15704,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="F399" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="G399" t="n">
         <v>2</v>
@@ -15880,10 +15733,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="F400" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="G400" t="n">
         <v>2</v>
@@ -15909,10 +15762,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="F401" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="G401" t="n">
         <v>2</v>
@@ -15938,10 +15791,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F402" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G402" t="n">
         <v>2</v>
@@ -15967,10 +15820,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="F403" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15996,10 +15849,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="F404" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="G404" t="n">
         <v>3</v>
@@ -16025,10 +15878,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="F405" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -16054,10 +15907,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="F406" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -16083,10 +15936,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="F407" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -16112,10 +15965,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="F408" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="G408" t="n">
         <v>3</v>
@@ -16141,10 +15994,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="F409" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="G409" t="n">
         <v>2</v>
@@ -16170,10 +16023,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="F410" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="G410" t="n">
         <v>2</v>
@@ -16199,10 +16052,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="F411" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -16228,10 +16081,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="F412" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="G412" t="n">
         <v>2</v>
@@ -16257,10 +16110,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="F413" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -16286,10 +16139,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="F414" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="G414" t="n">
         <v>5</v>
@@ -16315,10 +16168,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="F415" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -16344,10 +16197,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="F416" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="G416" t="n">
         <v>3</v>
@@ -16373,10 +16226,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="F417" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -16402,10 +16255,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="F418" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="G418" t="n">
         <v>2</v>
@@ -16431,10 +16284,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="F419" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -16460,10 +16313,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="F420" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="G420" t="n">
         <v>2</v>
@@ -16489,13 +16342,13 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="F421" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="G421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H421" t="s">
         <v>4</v>
@@ -16518,10 +16371,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="F422" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -16547,10 +16400,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="F423" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -16576,10 +16429,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="F424" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16605,10 +16458,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="F425" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16634,10 +16487,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="F426" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16663,10 +16516,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="F427" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16692,10 +16545,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="F428" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16721,10 +16574,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="F429" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16750,10 +16603,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="F430" t="s">
-        <v>844</v>
+        <v>830</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16779,10 +16632,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>845</v>
+        <v>831</v>
       </c>
       <c r="F431" t="s">
-        <v>846</v>
+        <v>832</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16808,10 +16661,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="F432" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16837,10 +16690,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="F433" t="s">
-        <v>850</v>
+        <v>836</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16866,10 +16719,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>851</v>
+        <v>837</v>
       </c>
       <c r="F434" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16895,10 +16748,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="F435" t="s">
-        <v>854</v>
+        <v>840</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16924,10 +16777,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>855</v>
+        <v>841</v>
       </c>
       <c r="F436" t="s">
-        <v>856</v>
+        <v>842</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16953,10 +16806,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="F437" t="s">
-        <v>858</v>
+        <v>613</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16982,10 +16835,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
       <c r="F438" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -17011,10 +16864,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
       <c r="F439" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -17040,10 +16893,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="F440" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -17069,10 +16922,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="F441" t="s">
-        <v>866</v>
+        <v>851</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -17098,10 +16951,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>867</v>
+        <v>852</v>
       </c>
       <c r="F442" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -17127,10 +16980,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="F443" t="s">
-        <v>870</v>
+        <v>855</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -17156,10 +17009,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="F444" t="s">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -17185,10 +17038,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="F445" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -17214,10 +17067,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
       <c r="F446" t="s">
-        <v>876</v>
+        <v>861</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -17243,10 +17096,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>877</v>
+        <v>862</v>
       </c>
       <c r="F447" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -17272,10 +17125,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>879</v>
+        <v>864</v>
       </c>
       <c r="F448" t="s">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -17301,10 +17154,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="F449" t="s">
-        <v>882</v>
+        <v>867</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -17330,10 +17183,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>883</v>
+        <v>868</v>
       </c>
       <c r="F450" t="s">
-        <v>884</v>
+        <v>869</v>
       </c>
       <c r="G450" t="n">
         <v>3</v>
@@ -17359,10 +17212,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>885</v>
+        <v>870</v>
       </c>
       <c r="F451" t="s">
-        <v>886</v>
+        <v>871</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17388,10 +17241,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>887</v>
+        <v>872</v>
       </c>
       <c r="F452" t="s">
-        <v>888</v>
+        <v>873</v>
       </c>
       <c r="G452" t="n">
         <v>2</v>
@@ -17417,10 +17270,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="F453" t="s">
-        <v>890</v>
+        <v>661</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -17446,10 +17299,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>891</v>
+        <v>875</v>
       </c>
       <c r="F454" t="s">
-        <v>892</v>
+        <v>876</v>
       </c>
       <c r="G454" t="n">
         <v>2</v>
@@ -17475,10 +17328,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>893</v>
+        <v>877</v>
       </c>
       <c r="F455" t="s">
-        <v>894</v>
+        <v>878</v>
       </c>
       <c r="G455" t="n">
         <v>4</v>
@@ -17504,10 +17357,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>895</v>
+        <v>879</v>
       </c>
       <c r="F456" t="s">
-        <v>896</v>
+        <v>880</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17533,10 +17386,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>897</v>
+        <v>881</v>
       </c>
       <c r="F457" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17562,10 +17415,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>899</v>
+        <v>883</v>
       </c>
       <c r="F458" t="s">
-        <v>900</v>
+        <v>884</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -17591,10 +17444,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="F459" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -17620,10 +17473,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>901</v>
+        <v>885</v>
       </c>
       <c r="F460" t="s">
-        <v>902</v>
+        <v>886</v>
       </c>
       <c r="G460" t="n">
         <v>2</v>
@@ -17649,10 +17502,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>903</v>
+        <v>887</v>
       </c>
       <c r="F461" t="s">
-        <v>904</v>
+        <v>888</v>
       </c>
       <c r="G461" t="n">
         <v>2</v>
@@ -17678,10 +17531,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>905</v>
+        <v>889</v>
       </c>
       <c r="F462" t="s">
-        <v>906</v>
+        <v>549</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17707,10 +17560,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F463" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17736,10 +17589,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>907</v>
+        <v>890</v>
       </c>
       <c r="F464" t="s">
-        <v>908</v>
+        <v>891</v>
       </c>
       <c r="G464" t="n">
         <v>3</v>
@@ -17765,10 +17618,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>909</v>
+        <v>892</v>
       </c>
       <c r="F465" t="s">
-        <v>910</v>
+        <v>893</v>
       </c>
       <c r="G465" t="n">
         <v>2</v>
@@ -17794,10 +17647,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>911</v>
+        <v>894</v>
       </c>
       <c r="F466" t="s">
-        <v>912</v>
+        <v>557</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17823,10 +17676,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>913</v>
+        <v>895</v>
       </c>
       <c r="F467" t="s">
-        <v>914</v>
+        <v>896</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17852,10 +17705,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>915</v>
+        <v>897</v>
       </c>
       <c r="F468" t="s">
-        <v>916</v>
+        <v>898</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17881,10 +17734,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>917</v>
+        <v>899</v>
       </c>
       <c r="F469" t="s">
-        <v>918</v>
+        <v>900</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17910,10 +17763,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>919</v>
+        <v>901</v>
       </c>
       <c r="F470" t="s">
-        <v>920</v>
+        <v>902</v>
       </c>
       <c r="G470" t="n">
         <v>2</v>
@@ -17939,10 +17792,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>921</v>
+        <v>903</v>
       </c>
       <c r="F471" t="s">
-        <v>922</v>
+        <v>559</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17968,10 +17821,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>923</v>
+        <v>904</v>
       </c>
       <c r="F472" t="s">
-        <v>924</v>
+        <v>905</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17997,10 +17850,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>925</v>
+        <v>906</v>
       </c>
       <c r="F473" t="s">
-        <v>926</v>
+        <v>907</v>
       </c>
       <c r="G473" t="n">
         <v>2</v>
@@ -18026,10 +17879,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>927</v>
+        <v>908</v>
       </c>
       <c r="F474" t="s">
-        <v>928</v>
+        <v>909</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -18055,10 +17908,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>929</v>
+        <v>910</v>
       </c>
       <c r="F475" t="s">
-        <v>930</v>
+        <v>911</v>
       </c>
       <c r="G475" t="n">
         <v>2</v>
@@ -18084,10 +17937,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>931</v>
+        <v>912</v>
       </c>
       <c r="F476" t="s">
-        <v>932</v>
+        <v>913</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -18113,10 +17966,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>933</v>
+        <v>914</v>
       </c>
       <c r="F477" t="s">
-        <v>934</v>
+        <v>915</v>
       </c>
       <c r="G477" t="n">
         <v>3</v>
@@ -18142,10 +17995,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>935</v>
+        <v>916</v>
       </c>
       <c r="F478" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -18171,10 +18024,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>937</v>
+        <v>918</v>
       </c>
       <c r="F479" t="s">
-        <v>938</v>
+        <v>919</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -18200,10 +18053,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>939</v>
+        <v>920</v>
       </c>
       <c r="F480" t="s">
-        <v>940</v>
+        <v>921</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -18229,10 +18082,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>941</v>
+        <v>922</v>
       </c>
       <c r="F481" t="s">
-        <v>942</v>
+        <v>923</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -18258,10 +18111,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>943</v>
+        <v>924</v>
       </c>
       <c r="F482" t="s">
-        <v>944</v>
+        <v>925</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -18287,10 +18140,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>945</v>
+        <v>926</v>
       </c>
       <c r="F483" t="s">
-        <v>946</v>
+        <v>927</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -18316,10 +18169,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>947</v>
+        <v>928</v>
       </c>
       <c r="F484" t="s">
-        <v>948</v>
+        <v>929</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -18345,10 +18198,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>949</v>
+        <v>930</v>
       </c>
       <c r="F485" t="s">
-        <v>950</v>
+        <v>931</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18374,10 +18227,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>951</v>
+        <v>932</v>
       </c>
       <c r="F486" t="s">
-        <v>952</v>
+        <v>933</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -18403,10 +18256,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>953</v>
+        <v>934</v>
       </c>
       <c r="F487" t="s">
-        <v>954</v>
+        <v>935</v>
       </c>
       <c r="G487" t="n">
         <v>2</v>
@@ -18432,10 +18285,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="F488" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18461,10 +18314,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>957</v>
+        <v>938</v>
       </c>
       <c r="F489" t="s">
-        <v>958</v>
+        <v>939</v>
       </c>
       <c r="G489" t="n">
         <v>2</v>
@@ -18490,10 +18343,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>959</v>
+        <v>940</v>
       </c>
       <c r="F490" t="s">
-        <v>960</v>
+        <v>941</v>
       </c>
       <c r="G490" t="n">
         <v>2</v>
@@ -18519,10 +18372,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>961</v>
+        <v>942</v>
       </c>
       <c r="F491" t="s">
-        <v>962</v>
+        <v>943</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18548,10 +18401,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>963</v>
+        <v>944</v>
       </c>
       <c r="F492" t="s">
-        <v>964</v>
+        <v>945</v>
       </c>
       <c r="G492" t="n">
         <v>2</v>
@@ -18577,10 +18430,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>965</v>
+        <v>946</v>
       </c>
       <c r="F493" t="s">
-        <v>966</v>
+        <v>774</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18606,10 +18459,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>967</v>
+        <v>947</v>
       </c>
       <c r="F494" t="s">
-        <v>968</v>
+        <v>948</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18635,10 +18488,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="F495" t="s">
-        <v>970</v>
+        <v>950</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18664,10 +18517,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F496" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="G496" t="n">
         <v>2</v>
@@ -18693,10 +18546,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>971</v>
+        <v>951</v>
       </c>
       <c r="F497" t="s">
-        <v>972</v>
+        <v>952</v>
       </c>
       <c r="G497" t="n">
         <v>2</v>
@@ -18722,10 +18575,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>973</v>
+        <v>953</v>
       </c>
       <c r="F498" t="s">
-        <v>974</v>
+        <v>954</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18751,10 +18604,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>975</v>
+        <v>955</v>
       </c>
       <c r="F499" t="s">
-        <v>976</v>
+        <v>956</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18780,10 +18633,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>977</v>
+        <v>957</v>
       </c>
       <c r="F500" t="s">
-        <v>978</v>
+        <v>958</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18809,10 +18662,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>979</v>
+        <v>959</v>
       </c>
       <c r="F501" t="s">
-        <v>980</v>
+        <v>571</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18838,10 +18691,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>981</v>
+        <v>960</v>
       </c>
       <c r="F502" t="s">
-        <v>982</v>
+        <v>573</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18867,10 +18720,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>983</v>
+        <v>961</v>
       </c>
       <c r="F503" t="s">
-        <v>984</v>
+        <v>778</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18896,10 +18749,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>985</v>
+        <v>962</v>
       </c>
       <c r="F504" t="s">
-        <v>986</v>
+        <v>963</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18925,10 +18778,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>987</v>
+        <v>964</v>
       </c>
       <c r="F505" t="s">
-        <v>988</v>
+        <v>531</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18954,10 +18807,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>989</v>
+        <v>965</v>
       </c>
       <c r="F506" t="s">
-        <v>990</v>
+        <v>966</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18983,10 +18836,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>991</v>
+        <v>967</v>
       </c>
       <c r="F507" t="s">
-        <v>992</v>
+        <v>968</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -19012,10 +18865,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>993</v>
+        <v>969</v>
       </c>
       <c r="F508" t="s">
-        <v>994</v>
+        <v>970</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -19041,10 +18894,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>995</v>
+        <v>971</v>
       </c>
       <c r="F509" t="s">
-        <v>996</v>
+        <v>972</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -19070,10 +18923,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>997</v>
+        <v>973</v>
       </c>
       <c r="F510" t="s">
-        <v>998</v>
+        <v>974</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -19099,10 +18952,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>999</v>
+        <v>975</v>
       </c>
       <c r="F511" t="s">
-        <v>1000</v>
+        <v>976</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -19128,10 +18981,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>1001</v>
+        <v>977</v>
       </c>
       <c r="F512" t="s">
-        <v>1002</v>
+        <v>577</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -19157,10 +19010,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>1003</v>
+        <v>978</v>
       </c>
       <c r="F513" t="s">
-        <v>1004</v>
+        <v>979</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -19186,10 +19039,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>1005</v>
+        <v>980</v>
       </c>
       <c r="F514" t="s">
-        <v>1006</v>
+        <v>981</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -19215,10 +19068,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>1007</v>
+        <v>982</v>
       </c>
       <c r="F515" t="s">
-        <v>1008</v>
+        <v>983</v>
       </c>
       <c r="G515" t="n">
         <v>2</v>
@@ -19244,10 +19097,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>1009</v>
+        <v>984</v>
       </c>
       <c r="F516" t="s">
-        <v>1010</v>
+        <v>985</v>
       </c>
       <c r="G516" t="n">
         <v>6</v>
@@ -19273,10 +19126,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F517" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -19302,10 +19155,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>1011</v>
+        <v>986</v>
       </c>
       <c r="F518" t="s">
-        <v>1012</v>
+        <v>987</v>
       </c>
       <c r="G518" t="n">
         <v>2</v>
@@ -19331,10 +19184,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>1013</v>
+        <v>988</v>
       </c>
       <c r="F519" t="s">
-        <v>1014</v>
+        <v>989</v>
       </c>
       <c r="G519" t="n">
         <v>3</v>
@@ -19360,10 +19213,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>1015</v>
+        <v>990</v>
       </c>
       <c r="F520" t="s">
-        <v>1016</v>
+        <v>991</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -19389,10 +19242,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>1017</v>
+        <v>992</v>
       </c>
       <c r="F521" t="s">
-        <v>1018</v>
+        <v>993</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -19418,10 +19271,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>1019</v>
+        <v>994</v>
       </c>
       <c r="F522" t="s">
-        <v>1020</v>
+        <v>995</v>
       </c>
       <c r="G522" t="n">
         <v>2</v>
@@ -19447,10 +19300,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>1021</v>
+        <v>996</v>
       </c>
       <c r="F523" t="s">
-        <v>1022</v>
+        <v>997</v>
       </c>
       <c r="G523" t="n">
         <v>2</v>
@@ -19476,10 +19329,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>1023</v>
+        <v>998</v>
       </c>
       <c r="F524" t="s">
-        <v>1024</v>
+        <v>999</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19505,10 +19358,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="F525" t="s">
-        <v>1026</v>
+        <v>1001</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -19534,10 +19387,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1027</v>
+        <v>1002</v>
       </c>
       <c r="F526" t="s">
-        <v>1028</v>
+        <v>1003</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19563,10 +19416,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1029</v>
+        <v>1004</v>
       </c>
       <c r="F527" t="s">
-        <v>1030</v>
+        <v>1005</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19592,10 +19445,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>1031</v>
+        <v>1006</v>
       </c>
       <c r="F528" t="s">
-        <v>1032</v>
+        <v>1007</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19621,10 +19474,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>1033</v>
+        <v>1008</v>
       </c>
       <c r="F529" t="s">
-        <v>1034</v>
+        <v>1009</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
@@ -19650,10 +19503,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>1035</v>
+        <v>1010</v>
       </c>
       <c r="F530" t="s">
-        <v>1036</v>
+        <v>1011</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19679,10 +19532,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>1037</v>
+        <v>1012</v>
       </c>
       <c r="F531" t="s">
-        <v>1038</v>
+        <v>539</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19708,10 +19561,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>1039</v>
+        <v>1013</v>
       </c>
       <c r="F532" t="s">
-        <v>1040</v>
+        <v>1014</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19737,10 +19590,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1041</v>
+        <v>1015</v>
       </c>
       <c r="F533" t="s">
-        <v>1042</v>
+        <v>1016</v>
       </c>
       <c r="G533" t="n">
         <v>2</v>
@@ -19766,10 +19619,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1043</v>
+        <v>1017</v>
       </c>
       <c r="F534" t="s">
-        <v>1044</v>
+        <v>1018</v>
       </c>
       <c r="G534" t="n">
         <v>2</v>
@@ -19795,10 +19648,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1045</v>
+        <v>1019</v>
       </c>
       <c r="F535" t="s">
-        <v>1046</v>
+        <v>1020</v>
       </c>
       <c r="G535" t="n">
         <v>2</v>
@@ -19824,10 +19677,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="F536" t="s">
-        <v>1048</v>
+        <v>1022</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19853,10 +19706,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>1049</v>
+        <v>1023</v>
       </c>
       <c r="F537" t="s">
-        <v>1050</v>
+        <v>1024</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19882,10 +19735,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="F538" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19911,10 +19764,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F539" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19940,10 +19793,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>1051</v>
+        <v>1025</v>
       </c>
       <c r="F540" t="s">
-        <v>1052</v>
+        <v>607</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19969,10 +19822,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>1053</v>
+        <v>1026</v>
       </c>
       <c r="F541" t="s">
-        <v>1054</v>
+        <v>1027</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19998,10 +19851,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>1055</v>
+        <v>1028</v>
       </c>
       <c r="F542" t="s">
-        <v>1056</v>
+        <v>739</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -20027,10 +19880,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>1057</v>
+        <v>1029</v>
       </c>
       <c r="F543" t="s">
-        <v>1058</v>
+        <v>1030</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -20056,10 +19909,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1059</v>
+        <v>1031</v>
       </c>
       <c r="F544" t="s">
-        <v>1060</v>
+        <v>1032</v>
       </c>
       <c r="G544" t="n">
         <v>2</v>
@@ -20085,10 +19938,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1061</v>
+        <v>1033</v>
       </c>
       <c r="F545" t="s">
-        <v>1062</v>
+        <v>1034</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -20114,10 +19967,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1063</v>
+        <v>1035</v>
       </c>
       <c r="F546" t="s">
-        <v>1064</v>
+        <v>1036</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -20143,10 +19996,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1065</v>
+        <v>1037</v>
       </c>
       <c r="F547" t="s">
-        <v>1066</v>
+        <v>1038</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -20172,10 +20025,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1067</v>
+        <v>1039</v>
       </c>
       <c r="F548" t="s">
-        <v>1068</v>
+        <v>1040</v>
       </c>
       <c r="G548" t="n">
         <v>2</v>
@@ -20201,10 +20054,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1069</v>
+        <v>1041</v>
       </c>
       <c r="F549" t="s">
-        <v>1070</v>
+        <v>1042</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -20230,10 +20083,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1071</v>
+        <v>1043</v>
       </c>
       <c r="F550" t="s">
-        <v>1072</v>
+        <v>1044</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -20259,10 +20112,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1073</v>
+        <v>1045</v>
       </c>
       <c r="F551" t="s">
-        <v>1074</v>
+        <v>1046</v>
       </c>
       <c r="G551" t="n">
         <v>2</v>
@@ -20288,10 +20141,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1075</v>
+        <v>1047</v>
       </c>
       <c r="F552" t="s">
-        <v>1076</v>
+        <v>1048</v>
       </c>
       <c r="G552" t="n">
         <v>2</v>
@@ -20317,10 +20170,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1077</v>
+        <v>1049</v>
       </c>
       <c r="F553" t="s">
-        <v>1078</v>
+        <v>1050</v>
       </c>
       <c r="G553" t="n">
         <v>2</v>
@@ -20346,10 +20199,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1079</v>
+        <v>1051</v>
       </c>
       <c r="F554" t="s">
-        <v>1080</v>
+        <v>1052</v>
       </c>
       <c r="G554" t="n">
         <v>2</v>
@@ -20375,10 +20228,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1081</v>
+        <v>1053</v>
       </c>
       <c r="F555" t="s">
-        <v>1082</v>
+        <v>1054</v>
       </c>
       <c r="G555" t="n">
         <v>2</v>
@@ -20404,10 +20257,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1083</v>
+        <v>1055</v>
       </c>
       <c r="F556" t="s">
-        <v>1084</v>
+        <v>670</v>
       </c>
       <c r="G556" t="n">
         <v>2</v>
@@ -20433,10 +20286,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1085</v>
+        <v>1056</v>
       </c>
       <c r="F557" t="s">
-        <v>1086</v>
+        <v>672</v>
       </c>
       <c r="G557" t="n">
         <v>2</v>
@@ -20462,10 +20315,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1087</v>
+        <v>1057</v>
       </c>
       <c r="F558" t="s">
-        <v>1088</v>
+        <v>1058</v>
       </c>
       <c r="G558" t="n">
         <v>2</v>
@@ -20491,10 +20344,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1089</v>
+        <v>1059</v>
       </c>
       <c r="F559" t="s">
-        <v>1090</v>
+        <v>1060</v>
       </c>
       <c r="G559" t="n">
         <v>2</v>
@@ -20520,10 +20373,10 @@
         <v>559</v>
       </c>
       <c r="E560" t="s">
-        <v>1091</v>
+        <v>1061</v>
       </c>
       <c r="F560" t="s">
-        <v>1092</v>
+        <v>1062</v>
       </c>
       <c r="G560" t="n">
         <v>2</v>
@@ -20549,10 +20402,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1093</v>
+        <v>1063</v>
       </c>
       <c r="F561" t="s">
-        <v>1094</v>
+        <v>1064</v>
       </c>
       <c r="G561" t="n">
         <v>2</v>
@@ -20578,10 +20431,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1095</v>
+        <v>1065</v>
       </c>
       <c r="F562" t="s">
-        <v>1096</v>
+        <v>1066</v>
       </c>
       <c r="G562" t="n">
         <v>2</v>
@@ -20607,10 +20460,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1097</v>
+        <v>1067</v>
       </c>
       <c r="F563" t="s">
-        <v>1098</v>
+        <v>1068</v>
       </c>
       <c r="G563" t="n">
         <v>2</v>
@@ -20636,10 +20489,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1099</v>
+        <v>1069</v>
       </c>
       <c r="F564" t="s">
-        <v>1100</v>
+        <v>1070</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20665,10 +20518,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1101</v>
+        <v>1071</v>
       </c>
       <c r="F565" t="s">
-        <v>1102</v>
+        <v>1072</v>
       </c>
       <c r="G565" t="n">
         <v>4</v>
@@ -20694,10 +20547,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1103</v>
+        <v>1073</v>
       </c>
       <c r="F566" t="s">
-        <v>1104</v>
+        <v>1072</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20723,10 +20576,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1105</v>
+        <v>1074</v>
       </c>
       <c r="F567" t="s">
-        <v>1106</v>
+        <v>1075</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20752,10 +20605,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1107</v>
+        <v>1076</v>
       </c>
       <c r="F568" t="s">
-        <v>1108</v>
+        <v>1077</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20781,10 +20634,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1109</v>
+        <v>1078</v>
       </c>
       <c r="F569" t="s">
-        <v>1110</v>
+        <v>1079</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20810,10 +20663,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1111</v>
+        <v>1080</v>
       </c>
       <c r="F570" t="s">
-        <v>1112</v>
+        <v>1081</v>
       </c>
       <c r="G570" t="n">
         <v>2</v>
@@ -20839,10 +20692,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1113</v>
+        <v>1082</v>
       </c>
       <c r="F571" t="s">
-        <v>1114</v>
+        <v>1083</v>
       </c>
       <c r="G571" t="n">
         <v>3</v>
@@ -20868,10 +20721,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1115</v>
+        <v>1084</v>
       </c>
       <c r="F572" t="s">
-        <v>1116</v>
+        <v>1085</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20897,10 +20750,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1117</v>
+        <v>1086</v>
       </c>
       <c r="F573" t="s">
-        <v>1118</v>
+        <v>1087</v>
       </c>
       <c r="G573" t="n">
         <v>2</v>
@@ -20926,10 +20779,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1119</v>
+        <v>1088</v>
       </c>
       <c r="F574" t="s">
-        <v>1120</v>
+        <v>1089</v>
       </c>
       <c r="G574" t="n">
         <v>2</v>
@@ -20955,10 +20808,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1121</v>
+        <v>1090</v>
       </c>
       <c r="F575" t="s">
-        <v>1122</v>
+        <v>1091</v>
       </c>
       <c r="G575" t="n">
         <v>2</v>
@@ -20984,10 +20837,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1123</v>
+        <v>1092</v>
       </c>
       <c r="F576" t="s">
-        <v>1124</v>
+        <v>1093</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -21013,10 +20866,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1125</v>
+        <v>1094</v>
       </c>
       <c r="F577" t="s">
-        <v>1126</v>
+        <v>1095</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -21042,10 +20895,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1127</v>
+        <v>1096</v>
       </c>
       <c r="F578" t="s">
-        <v>1128</v>
+        <v>1042</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -21071,10 +20924,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1129</v>
+        <v>1097</v>
       </c>
       <c r="F579" t="s">
-        <v>1130</v>
+        <v>1098</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -21100,10 +20953,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1131</v>
+        <v>1099</v>
       </c>
       <c r="F580" t="s">
-        <v>1132</v>
+        <v>1100</v>
       </c>
       <c r="G580" t="n">
         <v>2</v>
@@ -21129,10 +20982,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1123</v>
+        <v>1092</v>
       </c>
       <c r="F581" t="s">
-        <v>1124</v>
+        <v>1093</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -21158,10 +21011,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1133</v>
+        <v>1101</v>
       </c>
       <c r="F582" t="s">
-        <v>1134</v>
+        <v>1102</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -21187,10 +21040,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="F583" t="s">
-        <v>676</v>
+        <v>443</v>
       </c>
       <c r="G583" t="n">
         <v>2</v>
@@ -21216,10 +21069,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1135</v>
+        <v>1103</v>
       </c>
       <c r="F584" t="s">
-        <v>1136</v>
+        <v>943</v>
       </c>
       <c r="G584" t="n">
         <v>3</v>
@@ -21245,10 +21098,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1137</v>
+        <v>1104</v>
       </c>
       <c r="F585" t="s">
-        <v>1138</v>
+        <v>451</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -21274,10 +21127,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1139</v>
+        <v>1105</v>
       </c>
       <c r="F586" t="s">
-        <v>1140</v>
+        <v>1106</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -21303,10 +21156,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1141</v>
+        <v>1107</v>
       </c>
       <c r="F587" t="s">
-        <v>1142</v>
+        <v>1108</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -21332,10 +21185,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1143</v>
+        <v>1109</v>
       </c>
       <c r="F588" t="s">
-        <v>1144</v>
+        <v>1110</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21361,10 +21214,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1145</v>
+        <v>1111</v>
       </c>
       <c r="F589" t="s">
-        <v>1146</v>
+        <v>762</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -21390,10 +21243,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1147</v>
+        <v>1112</v>
       </c>
       <c r="F590" t="s">
-        <v>1148</v>
+        <v>1113</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21419,10 +21272,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1149</v>
+        <v>1114</v>
       </c>
       <c r="F591" t="s">
-        <v>1150</v>
+        <v>1115</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -21448,10 +21301,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1151</v>
+        <v>1116</v>
       </c>
       <c r="F592" t="s">
-        <v>1152</v>
+        <v>1117</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21477,10 +21330,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1153</v>
+        <v>1118</v>
       </c>
       <c r="F593" t="s">
-        <v>1154</v>
+        <v>893</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21506,10 +21359,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F594" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21535,10 +21388,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1155</v>
+        <v>1119</v>
       </c>
       <c r="F595" t="s">
-        <v>1156</v>
+        <v>1120</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21564,10 +21417,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F596" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G596" t="n">
         <v>4</v>
@@ -21593,10 +21446,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1157</v>
+        <v>1121</v>
       </c>
       <c r="F597" t="s">
-        <v>1158</v>
+        <v>1122</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21622,10 +21475,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
-        <v>1159</v>
+        <v>1123</v>
       </c>
       <c r="F598" t="s">
-        <v>1160</v>
+        <v>917</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21651,10 +21504,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1161</v>
+        <v>1124</v>
       </c>
       <c r="F599" t="s">
-        <v>1162</v>
+        <v>1125</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21680,10 +21533,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F600" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="G600" t="n">
         <v>6</v>
@@ -21709,10 +21562,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1163</v>
+        <v>1126</v>
       </c>
       <c r="F601" t="s">
-        <v>1164</v>
+        <v>1127</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21738,10 +21591,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1165</v>
+        <v>1128</v>
       </c>
       <c r="F602" t="s">
-        <v>1166</v>
+        <v>1129</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21767,10 +21620,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1167</v>
+        <v>1130</v>
       </c>
       <c r="F603" t="s">
-        <v>1168</v>
+        <v>1131</v>
       </c>
       <c r="G603" t="n">
         <v>2</v>
@@ -21796,10 +21649,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>1169</v>
+        <v>1132</v>
       </c>
       <c r="F604" t="s">
-        <v>1170</v>
+        <v>1133</v>
       </c>
       <c r="G604" t="n">
         <v>1</v>
@@ -21825,10 +21678,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1171</v>
+        <v>1134</v>
       </c>
       <c r="F605" t="s">
-        <v>1172</v>
+        <v>948</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21854,10 +21707,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1173</v>
+        <v>1135</v>
       </c>
       <c r="F606" t="s">
-        <v>1174</v>
+        <v>1136</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21883,10 +21736,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1175</v>
+        <v>1137</v>
       </c>
       <c r="F607" t="s">
-        <v>1176</v>
+        <v>1138</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21912,10 +21765,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1177</v>
+        <v>1139</v>
       </c>
       <c r="F608" t="s">
-        <v>1178</v>
+        <v>1140</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21941,10 +21794,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1179</v>
+        <v>1141</v>
       </c>
       <c r="F609" t="s">
-        <v>1180</v>
+        <v>972</v>
       </c>
       <c r="G609" t="n">
         <v>2</v>
@@ -21970,10 +21823,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1181</v>
+        <v>1142</v>
       </c>
       <c r="F610" t="s">
-        <v>1182</v>
+        <v>976</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21999,10 +21852,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1183</v>
+        <v>1143</v>
       </c>
       <c r="F611" t="s">
-        <v>1184</v>
+        <v>979</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -22028,10 +21881,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1185</v>
+        <v>1144</v>
       </c>
       <c r="F612" t="s">
-        <v>1186</v>
+        <v>1145</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -22057,10 +21910,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1187</v>
+        <v>1146</v>
       </c>
       <c r="F613" t="s">
-        <v>1188</v>
+        <v>991</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -22086,10 +21939,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1189</v>
+        <v>1147</v>
       </c>
       <c r="F614" t="s">
-        <v>1190</v>
+        <v>999</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -22115,10 +21968,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1191</v>
+        <v>1148</v>
       </c>
       <c r="F615" t="s">
-        <v>1192</v>
+        <v>1149</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -22144,10 +21997,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="F616" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -22173,10 +22026,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1193</v>
+        <v>1150</v>
       </c>
       <c r="F617" t="s">
-        <v>1194</v>
+        <v>802</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -22202,10 +22055,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1195</v>
+        <v>1151</v>
       </c>
       <c r="F618" t="s">
-        <v>1196</v>
+        <v>1152</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -22231,10 +22084,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1197</v>
+        <v>1153</v>
       </c>
       <c r="F619" t="s">
-        <v>1198</v>
+        <v>1024</v>
       </c>
       <c r="G619" t="n">
         <v>2</v>
@@ -22260,10 +22113,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1199</v>
+        <v>1154</v>
       </c>
       <c r="F620" t="s">
-        <v>1200</v>
+        <v>1155</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -22289,10 +22142,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1201</v>
+        <v>1156</v>
       </c>
       <c r="F621" t="s">
-        <v>1202</v>
+        <v>1157</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -22318,10 +22171,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1203</v>
+        <v>1158</v>
       </c>
       <c r="F622" t="s">
-        <v>1204</v>
+        <v>1159</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22347,10 +22200,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1205</v>
+        <v>1160</v>
       </c>
       <c r="F623" t="s">
-        <v>1206</v>
+        <v>1161</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -22376,10 +22229,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1207</v>
+        <v>1162</v>
       </c>
       <c r="F624" t="s">
-        <v>1208</v>
+        <v>1030</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -22405,10 +22258,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1209</v>
+        <v>1163</v>
       </c>
       <c r="F625" t="s">
-        <v>1210</v>
+        <v>1164</v>
       </c>
       <c r="G625" t="n">
         <v>2</v>
@@ -22434,10 +22287,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1211</v>
+        <v>1165</v>
       </c>
       <c r="F626" t="s">
-        <v>1212</v>
+        <v>1166</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -22463,10 +22316,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1213</v>
+        <v>1167</v>
       </c>
       <c r="F627" t="s">
-        <v>1214</v>
+        <v>913</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22492,10 +22345,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1215</v>
+        <v>1168</v>
       </c>
       <c r="F628" t="s">
-        <v>1216</v>
+        <v>1169</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22521,10 +22374,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1217</v>
+        <v>1170</v>
       </c>
       <c r="F629" t="s">
-        <v>1218</v>
+        <v>1171</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -22550,10 +22403,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1219</v>
+        <v>1172</v>
       </c>
       <c r="F630" t="s">
-        <v>1220</v>
+        <v>1173</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22579,10 +22432,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1221</v>
+        <v>1174</v>
       </c>
       <c r="F631" t="s">
-        <v>1222</v>
+        <v>1175</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -22608,10 +22461,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1223</v>
+        <v>1176</v>
       </c>
       <c r="F632" t="s">
-        <v>1224</v>
+        <v>737</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22637,10 +22490,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1225</v>
+        <v>1177</v>
       </c>
       <c r="F633" t="s">
-        <v>1226</v>
+        <v>447</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22666,10 +22519,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1227</v>
+        <v>1178</v>
       </c>
       <c r="F634" t="s">
-        <v>1228</v>
+        <v>1179</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22695,10 +22548,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1229</v>
+        <v>1180</v>
       </c>
       <c r="F635" t="s">
-        <v>1230</v>
+        <v>1181</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22724,10 +22577,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1231</v>
+        <v>1182</v>
       </c>
       <c r="F636" t="s">
-        <v>1232</v>
+        <v>1183</v>
       </c>
       <c r="G636" t="n">
         <v>3</v>
@@ -22753,10 +22606,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1203</v>
+        <v>1158</v>
       </c>
       <c r="F637" t="s">
-        <v>1204</v>
+        <v>1159</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22782,10 +22635,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F638" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -22811,10 +22664,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1233</v>
+        <v>1184</v>
       </c>
       <c r="F639" t="s">
-        <v>1234</v>
+        <v>1185</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22840,10 +22693,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1235</v>
+        <v>1186</v>
       </c>
       <c r="F640" t="s">
-        <v>1236</v>
+        <v>1187</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22869,10 +22722,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="F641" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="G641" t="n">
         <v>177</v>
@@ -22898,10 +22751,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1237</v>
+        <v>1188</v>
       </c>
       <c r="F642" t="s">
-        <v>1238</v>
+        <v>1189</v>
       </c>
       <c r="G642" t="n">
         <v>1</v>
@@ -22927,10 +22780,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1239</v>
+        <v>1190</v>
       </c>
       <c r="F643" t="s">
-        <v>1240</v>
+        <v>1191</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -22956,10 +22809,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1241</v>
+        <v>1192</v>
       </c>
       <c r="F644" t="s">
-        <v>1242</v>
+        <v>1193</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -22985,10 +22838,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1243</v>
+        <v>1194</v>
       </c>
       <c r="F645" t="s">
-        <v>1244</v>
+        <v>1195</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -23014,10 +22867,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1245</v>
+        <v>1196</v>
       </c>
       <c r="F646" t="s">
-        <v>1246</v>
+        <v>1197</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -23043,10 +22896,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1247</v>
+        <v>1198</v>
       </c>
       <c r="F647" t="s">
-        <v>1248</v>
+        <v>1199</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -23072,10 +22925,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1249</v>
+        <v>1200</v>
       </c>
       <c r="F648" t="s">
-        <v>1250</v>
+        <v>1201</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -23101,10 +22954,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1251</v>
+        <v>1202</v>
       </c>
       <c r="F649" t="s">
-        <v>1252</v>
+        <v>1203</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -23130,10 +22983,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1253</v>
+        <v>1204</v>
       </c>
       <c r="F650" t="s">
-        <v>1254</v>
+        <v>1205</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -23159,10 +23012,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>1255</v>
+        <v>1206</v>
       </c>
       <c r="F651" t="s">
-        <v>1256</v>
+        <v>1207</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -23188,10 +23041,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1257</v>
+        <v>1208</v>
       </c>
       <c r="F652" t="s">
-        <v>1258</v>
+        <v>1209</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -23217,10 +23070,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1259</v>
+        <v>1210</v>
       </c>
       <c r="F653" t="s">
-        <v>1260</v>
+        <v>1211</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -23246,10 +23099,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1261</v>
+        <v>1212</v>
       </c>
       <c r="F654" t="s">
-        <v>1262</v>
+        <v>1213</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>
@@ -23275,10 +23128,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1263</v>
+        <v>1214</v>
       </c>
       <c r="F655" t="s">
-        <v>1264</v>
+        <v>1215</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -23304,10 +23157,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1265</v>
+        <v>1216</v>
       </c>
       <c r="F656" t="s">
-        <v>1266</v>
+        <v>1217</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -23333,10 +23186,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1267</v>
+        <v>1218</v>
       </c>
       <c r="F657" t="s">
-        <v>1268</v>
+        <v>1219</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -23362,10 +23215,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1269</v>
+        <v>1220</v>
       </c>
       <c r="F658" t="s">
-        <v>1270</v>
+        <v>1221</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -23391,10 +23244,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1271</v>
+        <v>1222</v>
       </c>
       <c r="F659" t="s">
-        <v>1272</v>
+        <v>1223</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -23420,10 +23273,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1273</v>
+        <v>1224</v>
       </c>
       <c r="F660" t="s">
-        <v>1274</v>
+        <v>1225</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -23449,10 +23302,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1275</v>
+        <v>1226</v>
       </c>
       <c r="F661" t="s">
-        <v>1276</v>
+        <v>1227</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -23478,10 +23331,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1277</v>
+        <v>1228</v>
       </c>
       <c r="F662" t="s">
-        <v>1278</v>
+        <v>1229</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
@@ -23507,10 +23360,10 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>1279</v>
+        <v>1230</v>
       </c>
       <c r="F663" t="s">
-        <v>1280</v>
+        <v>1231</v>
       </c>
       <c r="G663" t="n">
         <v>1</v>
@@ -23536,10 +23389,10 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1281</v>
+        <v>1232</v>
       </c>
       <c r="F664" t="s">
-        <v>1282</v>
+        <v>1233</v>
       </c>
       <c r="G664" t="n">
         <v>1</v>
@@ -23565,10 +23418,10 @@
         <v>664</v>
       </c>
       <c r="E665" t="s">
-        <v>1283</v>
+        <v>1234</v>
       </c>
       <c r="F665" t="s">
-        <v>1284</v>
+        <v>1235</v>
       </c>
       <c r="G665" t="n">
         <v>1</v>
@@ -23594,10 +23447,10 @@
         <v>665</v>
       </c>
       <c r="E666" t="s">
-        <v>1285</v>
+        <v>1236</v>
       </c>
       <c r="F666" t="s">
-        <v>1286</v>
+        <v>1237</v>
       </c>
       <c r="G666" t="n">
         <v>1</v>
@@ -23623,10 +23476,10 @@
         <v>666</v>
       </c>
       <c r="E667" t="s">
-        <v>1287</v>
+        <v>1238</v>
       </c>
       <c r="F667" t="s">
-        <v>1288</v>
+        <v>1239</v>
       </c>
       <c r="G667" t="n">
         <v>3</v>
@@ -23652,10 +23505,10 @@
         <v>667</v>
       </c>
       <c r="E668" t="s">
-        <v>1289</v>
+        <v>1240</v>
       </c>
       <c r="F668" t="s">
-        <v>1290</v>
+        <v>1241</v>
       </c>
       <c r="G668" t="n">
         <v>1</v>
@@ -23681,10 +23534,10 @@
         <v>668</v>
       </c>
       <c r="E669" t="s">
-        <v>1291</v>
+        <v>1242</v>
       </c>
       <c r="F669" t="s">
-        <v>1292</v>
+        <v>1243</v>
       </c>
       <c r="G669" t="n">
         <v>1</v>
@@ -23710,10 +23563,10 @@
         <v>669</v>
       </c>
       <c r="E670" t="s">
-        <v>1293</v>
+        <v>1244</v>
       </c>
       <c r="F670" t="s">
-        <v>1294</v>
+        <v>1245</v>
       </c>
       <c r="G670" t="n">
         <v>1</v>
@@ -23739,10 +23592,10 @@
         <v>670</v>
       </c>
       <c r="E671" t="s">
-        <v>1295</v>
+        <v>1246</v>
       </c>
       <c r="F671" t="s">
-        <v>1296</v>
+        <v>1247</v>
       </c>
       <c r="G671" t="n">
         <v>1</v>
@@ -23768,10 +23621,10 @@
         <v>671</v>
       </c>
       <c r="E672" t="s">
-        <v>1297</v>
+        <v>1248</v>
       </c>
       <c r="F672" t="s">
-        <v>1298</v>
+        <v>1249</v>
       </c>
       <c r="G672" t="n">
         <v>1</v>
@@ -23797,10 +23650,10 @@
         <v>672</v>
       </c>
       <c r="E673" t="s">
-        <v>1299</v>
+        <v>1250</v>
       </c>
       <c r="F673" t="s">
-        <v>1300</v>
+        <v>1251</v>
       </c>
       <c r="G673" t="n">
         <v>1</v>
@@ -23826,10 +23679,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>1301</v>
+        <v>1252</v>
       </c>
       <c r="F674" t="s">
-        <v>1302</v>
+        <v>1253</v>
       </c>
       <c r="G674" t="n">
         <v>1</v>
@@ -23855,10 +23708,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1303</v>
+        <v>1254</v>
       </c>
       <c r="F675" t="s">
-        <v>1304</v>
+        <v>1255</v>
       </c>
       <c r="G675" t="n">
         <v>1</v>
@@ -23884,10 +23737,10 @@
         <v>675</v>
       </c>
       <c r="E676" t="s">
-        <v>1305</v>
+        <v>1256</v>
       </c>
       <c r="F676" t="s">
-        <v>1306</v>
+        <v>1257</v>
       </c>
       <c r="G676" t="n">
         <v>1</v>
@@ -23913,10 +23766,10 @@
         <v>676</v>
       </c>
       <c r="E677" t="s">
-        <v>1307</v>
+        <v>1258</v>
       </c>
       <c r="F677" t="s">
-        <v>1308</v>
+        <v>1259</v>
       </c>
       <c r="G677" t="n">
         <v>4</v>

--- a/xlsx/南非_intext.xlsx
+++ b/xlsx/南非_intext.xlsx
@@ -29,7 +29,7 @@
     <t>南部非洲</t>
   </si>
   <si>
-    <t>政策_政策_美國_南非</t>
+    <t>体育运动_体育运动_南非</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
@@ -224,10 +224,10 @@
     <t>南非总统</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%96%E9%A6%AC</t>
-  </si>
-  <si>
-    <t>祖馬</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84%E5%B8%83%C2%B7%E7%A5%96%E7%91%AA</t>
+  </si>
+  <si>
+    <t>雅各布·祖瑪</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Deputy_President_of_South_Africa</t>
@@ -4350,7 +4350,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4379,7 +4379,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4408,7 +4408,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4437,7 +4437,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4466,7 +4466,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4495,7 +4495,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4524,7 +4524,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4553,7 +4553,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4582,7 +4582,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4611,7 +4611,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4640,7 +4640,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4669,7 +4669,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4698,7 +4698,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4727,7 +4727,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4756,7 +4756,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4785,7 +4785,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4814,7 +4814,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4843,7 +4843,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -4872,7 +4872,7 @@
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -4901,7 +4901,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -4930,7 +4930,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -4959,7 +4959,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -4988,7 +4988,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -5017,7 +5017,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -5046,7 +5046,7 @@
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -5075,7 +5075,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -5104,7 +5104,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -5133,7 +5133,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -5162,7 +5162,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -5191,7 +5191,7 @@
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -5220,7 +5220,7 @@
         <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -5249,7 +5249,7 @@
         <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -5278,7 +5278,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -5307,7 +5307,7 @@
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -5336,7 +5336,7 @@
         <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -5365,7 +5365,7 @@
         <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -5394,7 +5394,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -5423,7 +5423,7 @@
         <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -5452,7 +5452,7 @@
         <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -5481,7 +5481,7 @@
         <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -5510,7 +5510,7 @@
         <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -5539,7 +5539,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -5568,7 +5568,7 @@
         <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -5597,7 +5597,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -5626,7 +5626,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -5655,7 +5655,7 @@
         <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -5684,7 +5684,7 @@
         <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -5713,7 +5713,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -5742,7 +5742,7 @@
         <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -5771,7 +5771,7 @@
         <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -5800,7 +5800,7 @@
         <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -5829,7 +5829,7 @@
         <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -5858,7 +5858,7 @@
         <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -5887,7 +5887,7 @@
         <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -5916,7 +5916,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -5945,7 +5945,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -5974,7 +5974,7 @@
         <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -6003,7 +6003,7 @@
         <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -6032,7 +6032,7 @@
         <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -6061,7 +6061,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -6090,7 +6090,7 @@
         <v>4</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -6119,7 +6119,7 @@
         <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -6148,7 +6148,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -6177,7 +6177,7 @@
         <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -6206,7 +6206,7 @@
         <v>4</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -6235,7 +6235,7 @@
         <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -6264,7 +6264,7 @@
         <v>4</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -6293,7 +6293,7 @@
         <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -6322,7 +6322,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -6351,7 +6351,7 @@
         <v>4</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -6380,7 +6380,7 @@
         <v>4</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -6409,7 +6409,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -6438,7 +6438,7 @@
         <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -6467,7 +6467,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -6496,7 +6496,7 @@
         <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -6525,7 +6525,7 @@
         <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -6554,7 +6554,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -6583,7 +6583,7 @@
         <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -6612,7 +6612,7 @@
         <v>4</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -6641,7 +6641,7 @@
         <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -6670,7 +6670,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -6699,7 +6699,7 @@
         <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -6728,7 +6728,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -6757,7 +6757,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -6786,7 +6786,7 @@
         <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -6815,7 +6815,7 @@
         <v>4</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -6844,7 +6844,7 @@
         <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -6873,7 +6873,7 @@
         <v>4</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -6902,7 +6902,7 @@
         <v>4</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -6931,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -6960,7 +6960,7 @@
         <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -6989,7 +6989,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -7018,7 +7018,7 @@
         <v>4</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -7047,7 +7047,7 @@
         <v>4</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -7076,7 +7076,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -7105,7 +7105,7 @@
         <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -7134,7 +7134,7 @@
         <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -7163,7 +7163,7 @@
         <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -7192,7 +7192,7 @@
         <v>4</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -7221,7 +7221,7 @@
         <v>4</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -7250,7 +7250,7 @@
         <v>4</v>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -7279,7 +7279,7 @@
         <v>4</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -7308,7 +7308,7 @@
         <v>4</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -7337,7 +7337,7 @@
         <v>4</v>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -7366,7 +7366,7 @@
         <v>4</v>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -7395,7 +7395,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -7424,7 +7424,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -7453,7 +7453,7 @@
         <v>4</v>
       </c>
       <c r="I109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -7482,7 +7482,7 @@
         <v>4</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -7511,7 +7511,7 @@
         <v>4</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -7540,7 +7540,7 @@
         <v>4</v>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -7569,7 +7569,7 @@
         <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -7598,7 +7598,7 @@
         <v>4</v>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -7627,7 +7627,7 @@
         <v>4</v>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -7656,7 +7656,7 @@
         <v>4</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -7685,7 +7685,7 @@
         <v>4</v>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -7714,7 +7714,7 @@
         <v>4</v>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -7743,7 +7743,7 @@
         <v>4</v>
       </c>
       <c r="I119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -7772,7 +7772,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -7801,7 +7801,7 @@
         <v>4</v>
       </c>
       <c r="I121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -7830,7 +7830,7 @@
         <v>4</v>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -7859,7 +7859,7 @@
         <v>4</v>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -7888,7 +7888,7 @@
         <v>4</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -7917,7 +7917,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -7946,7 +7946,7 @@
         <v>4</v>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -7975,7 +7975,7 @@
         <v>4</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -8004,7 +8004,7 @@
         <v>4</v>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -8033,7 +8033,7 @@
         <v>4</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -8062,7 +8062,7 @@
         <v>4</v>
       </c>
       <c r="I130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -8091,7 +8091,7 @@
         <v>4</v>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -8120,7 +8120,7 @@
         <v>4</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -8149,7 +8149,7 @@
         <v>4</v>
       </c>
       <c r="I133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -8178,7 +8178,7 @@
         <v>4</v>
       </c>
       <c r="I134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -8207,7 +8207,7 @@
         <v>4</v>
       </c>
       <c r="I135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -8236,7 +8236,7 @@
         <v>4</v>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -8265,7 +8265,7 @@
         <v>4</v>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -8294,7 +8294,7 @@
         <v>4</v>
       </c>
       <c r="I138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -8323,7 +8323,7 @@
         <v>4</v>
       </c>
       <c r="I139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -8352,7 +8352,7 @@
         <v>4</v>
       </c>
       <c r="I140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -8381,7 +8381,7 @@
         <v>4</v>
       </c>
       <c r="I141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -8410,7 +8410,7 @@
         <v>4</v>
       </c>
       <c r="I142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -8439,7 +8439,7 @@
         <v>4</v>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -8468,7 +8468,7 @@
         <v>4</v>
       </c>
       <c r="I144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -8497,7 +8497,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -8526,7 +8526,7 @@
         <v>4</v>
       </c>
       <c r="I146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -8555,7 +8555,7 @@
         <v>4</v>
       </c>
       <c r="I147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -8584,7 +8584,7 @@
         <v>4</v>
       </c>
       <c r="I148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -8613,7 +8613,7 @@
         <v>4</v>
       </c>
       <c r="I149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -8642,7 +8642,7 @@
         <v>4</v>
       </c>
       <c r="I150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -8671,7 +8671,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -8700,7 +8700,7 @@
         <v>4</v>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -8729,7 +8729,7 @@
         <v>4</v>
       </c>
       <c r="I153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -8758,7 +8758,7 @@
         <v>4</v>
       </c>
       <c r="I154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -8787,7 +8787,7 @@
         <v>4</v>
       </c>
       <c r="I155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -8816,7 +8816,7 @@
         <v>4</v>
       </c>
       <c r="I156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -8845,7 +8845,7 @@
         <v>4</v>
       </c>
       <c r="I157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -8874,7 +8874,7 @@
         <v>4</v>
       </c>
       <c r="I158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -8903,7 +8903,7 @@
         <v>4</v>
       </c>
       <c r="I159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -8932,7 +8932,7 @@
         <v>4</v>
       </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -8961,7 +8961,7 @@
         <v>4</v>
       </c>
       <c r="I161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -8990,7 +8990,7 @@
         <v>4</v>
       </c>
       <c r="I162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -9019,7 +9019,7 @@
         <v>4</v>
       </c>
       <c r="I163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -9048,7 +9048,7 @@
         <v>4</v>
       </c>
       <c r="I164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -9077,7 +9077,7 @@
         <v>4</v>
       </c>
       <c r="I165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -9106,7 +9106,7 @@
         <v>4</v>
       </c>
       <c r="I166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -9135,7 +9135,7 @@
         <v>4</v>
       </c>
       <c r="I167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -9164,7 +9164,7 @@
         <v>4</v>
       </c>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -9193,7 +9193,7 @@
         <v>4</v>
       </c>
       <c r="I169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -9222,7 +9222,7 @@
         <v>4</v>
       </c>
       <c r="I170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -9251,7 +9251,7 @@
         <v>4</v>
       </c>
       <c r="I171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -9280,7 +9280,7 @@
         <v>4</v>
       </c>
       <c r="I172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -9309,7 +9309,7 @@
         <v>4</v>
       </c>
       <c r="I173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -9338,7 +9338,7 @@
         <v>4</v>
       </c>
       <c r="I174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -9367,7 +9367,7 @@
         <v>4</v>
       </c>
       <c r="I175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -9396,7 +9396,7 @@
         <v>4</v>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -9425,7 +9425,7 @@
         <v>4</v>
       </c>
       <c r="I177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -9454,7 +9454,7 @@
         <v>4</v>
       </c>
       <c r="I178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -9483,7 +9483,7 @@
         <v>4</v>
       </c>
       <c r="I179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -9512,7 +9512,7 @@
         <v>4</v>
       </c>
       <c r="I180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -9541,7 +9541,7 @@
         <v>4</v>
       </c>
       <c r="I181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -9570,7 +9570,7 @@
         <v>4</v>
       </c>
       <c r="I182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -9599,7 +9599,7 @@
         <v>4</v>
       </c>
       <c r="I183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -9628,7 +9628,7 @@
         <v>4</v>
       </c>
       <c r="I184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -9657,7 +9657,7 @@
         <v>4</v>
       </c>
       <c r="I185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -9686,7 +9686,7 @@
         <v>4</v>
       </c>
       <c r="I186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -9715,7 +9715,7 @@
         <v>4</v>
       </c>
       <c r="I187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -9744,7 +9744,7 @@
         <v>4</v>
       </c>
       <c r="I188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -9773,7 +9773,7 @@
         <v>4</v>
       </c>
       <c r="I189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -9802,7 +9802,7 @@
         <v>4</v>
       </c>
       <c r="I190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -9831,7 +9831,7 @@
         <v>4</v>
       </c>
       <c r="I191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -9860,7 +9860,7 @@
         <v>4</v>
       </c>
       <c r="I192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -9889,7 +9889,7 @@
         <v>4</v>
       </c>
       <c r="I193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -9918,7 +9918,7 @@
         <v>4</v>
       </c>
       <c r="I194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -9947,7 +9947,7 @@
         <v>4</v>
       </c>
       <c r="I195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -9976,7 +9976,7 @@
         <v>4</v>
       </c>
       <c r="I196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -10005,7 +10005,7 @@
         <v>4</v>
       </c>
       <c r="I197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -10034,7 +10034,7 @@
         <v>4</v>
       </c>
       <c r="I198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -10063,7 +10063,7 @@
         <v>4</v>
       </c>
       <c r="I199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -10092,7 +10092,7 @@
         <v>4</v>
       </c>
       <c r="I200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -10121,7 +10121,7 @@
         <v>4</v>
       </c>
       <c r="I201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -10150,7 +10150,7 @@
         <v>4</v>
       </c>
       <c r="I202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -10179,7 +10179,7 @@
         <v>4</v>
       </c>
       <c r="I203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -10208,7 +10208,7 @@
         <v>4</v>
       </c>
       <c r="I204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -10237,7 +10237,7 @@
         <v>4</v>
       </c>
       <c r="I205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -10266,7 +10266,7 @@
         <v>4</v>
       </c>
       <c r="I206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -10295,7 +10295,7 @@
         <v>4</v>
       </c>
       <c r="I207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -10324,7 +10324,7 @@
         <v>4</v>
       </c>
       <c r="I208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -10353,7 +10353,7 @@
         <v>4</v>
       </c>
       <c r="I209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -10382,7 +10382,7 @@
         <v>4</v>
       </c>
       <c r="I210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -10411,7 +10411,7 @@
         <v>4</v>
       </c>
       <c r="I211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -10440,7 +10440,7 @@
         <v>4</v>
       </c>
       <c r="I212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -10469,7 +10469,7 @@
         <v>4</v>
       </c>
       <c r="I213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -10498,7 +10498,7 @@
         <v>4</v>
       </c>
       <c r="I214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -10527,7 +10527,7 @@
         <v>4</v>
       </c>
       <c r="I215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -10556,7 +10556,7 @@
         <v>4</v>
       </c>
       <c r="I216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -10585,7 +10585,7 @@
         <v>4</v>
       </c>
       <c r="I217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -10614,7 +10614,7 @@
         <v>4</v>
       </c>
       <c r="I218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -10643,7 +10643,7 @@
         <v>4</v>
       </c>
       <c r="I219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -10672,7 +10672,7 @@
         <v>4</v>
       </c>
       <c r="I220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -10701,7 +10701,7 @@
         <v>4</v>
       </c>
       <c r="I221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -10730,7 +10730,7 @@
         <v>4</v>
       </c>
       <c r="I222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -10759,7 +10759,7 @@
         <v>4</v>
       </c>
       <c r="I223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -10788,7 +10788,7 @@
         <v>4</v>
       </c>
       <c r="I224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -10817,7 +10817,7 @@
         <v>4</v>
       </c>
       <c r="I225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -10846,7 +10846,7 @@
         <v>4</v>
       </c>
       <c r="I226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -10875,7 +10875,7 @@
         <v>4</v>
       </c>
       <c r="I227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -10904,7 +10904,7 @@
         <v>4</v>
       </c>
       <c r="I228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -10933,7 +10933,7 @@
         <v>4</v>
       </c>
       <c r="I229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -10962,7 +10962,7 @@
         <v>4</v>
       </c>
       <c r="I230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -10991,7 +10991,7 @@
         <v>4</v>
       </c>
       <c r="I231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -11020,7 +11020,7 @@
         <v>4</v>
       </c>
       <c r="I232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -11049,7 +11049,7 @@
         <v>4</v>
       </c>
       <c r="I233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -11078,7 +11078,7 @@
         <v>4</v>
       </c>
       <c r="I234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -11107,7 +11107,7 @@
         <v>4</v>
       </c>
       <c r="I235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -11136,7 +11136,7 @@
         <v>4</v>
       </c>
       <c r="I236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -11165,7 +11165,7 @@
         <v>4</v>
       </c>
       <c r="I237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -11194,7 +11194,7 @@
         <v>4</v>
       </c>
       <c r="I238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -11223,7 +11223,7 @@
         <v>4</v>
       </c>
       <c r="I239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -11252,7 +11252,7 @@
         <v>4</v>
       </c>
       <c r="I240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -11281,7 +11281,7 @@
         <v>4</v>
       </c>
       <c r="I241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -11310,7 +11310,7 @@
         <v>4</v>
       </c>
       <c r="I242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -11339,7 +11339,7 @@
         <v>4</v>
       </c>
       <c r="I243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -11368,7 +11368,7 @@
         <v>4</v>
       </c>
       <c r="I244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -11397,7 +11397,7 @@
         <v>4</v>
       </c>
       <c r="I245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -11426,7 +11426,7 @@
         <v>4</v>
       </c>
       <c r="I246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -11455,7 +11455,7 @@
         <v>4</v>
       </c>
       <c r="I247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -11484,7 +11484,7 @@
         <v>4</v>
       </c>
       <c r="I248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -11513,7 +11513,7 @@
         <v>4</v>
       </c>
       <c r="I249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -11542,7 +11542,7 @@
         <v>4</v>
       </c>
       <c r="I250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -11571,7 +11571,7 @@
         <v>4</v>
       </c>
       <c r="I251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -11600,7 +11600,7 @@
         <v>4</v>
       </c>
       <c r="I252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -11629,7 +11629,7 @@
         <v>4</v>
       </c>
       <c r="I253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -11658,7 +11658,7 @@
         <v>4</v>
       </c>
       <c r="I254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -11687,7 +11687,7 @@
         <v>4</v>
       </c>
       <c r="I255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -11716,7 +11716,7 @@
         <v>4</v>
       </c>
       <c r="I256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -11745,7 +11745,7 @@
         <v>4</v>
       </c>
       <c r="I257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -11774,7 +11774,7 @@
         <v>4</v>
       </c>
       <c r="I258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -11803,7 +11803,7 @@
         <v>4</v>
       </c>
       <c r="I259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -11832,7 +11832,7 @@
         <v>4</v>
       </c>
       <c r="I260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -11861,7 +11861,7 @@
         <v>4</v>
       </c>
       <c r="I261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -11890,7 +11890,7 @@
         <v>4</v>
       </c>
       <c r="I262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -11919,7 +11919,7 @@
         <v>4</v>
       </c>
       <c r="I263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -11948,7 +11948,7 @@
         <v>4</v>
       </c>
       <c r="I264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -11977,7 +11977,7 @@
         <v>4</v>
       </c>
       <c r="I265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -12006,7 +12006,7 @@
         <v>4</v>
       </c>
       <c r="I266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -12035,7 +12035,7 @@
         <v>4</v>
       </c>
       <c r="I267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -12064,7 +12064,7 @@
         <v>4</v>
       </c>
       <c r="I268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -12093,7 +12093,7 @@
         <v>4</v>
       </c>
       <c r="I269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -12122,7 +12122,7 @@
         <v>4</v>
       </c>
       <c r="I270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -12151,7 +12151,7 @@
         <v>4</v>
       </c>
       <c r="I271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -12180,7 +12180,7 @@
         <v>4</v>
       </c>
       <c r="I272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -12209,7 +12209,7 @@
         <v>4</v>
       </c>
       <c r="I273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -12238,7 +12238,7 @@
         <v>4</v>
       </c>
       <c r="I274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -12267,7 +12267,7 @@
         <v>4</v>
       </c>
       <c r="I275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -12296,7 +12296,7 @@
         <v>4</v>
       </c>
       <c r="I276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -12325,7 +12325,7 @@
         <v>4</v>
       </c>
       <c r="I277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -12354,7 +12354,7 @@
         <v>4</v>
       </c>
       <c r="I278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -12383,7 +12383,7 @@
         <v>4</v>
       </c>
       <c r="I279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -12412,7 +12412,7 @@
         <v>4</v>
       </c>
       <c r="I280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -12441,7 +12441,7 @@
         <v>4</v>
       </c>
       <c r="I281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -12470,7 +12470,7 @@
         <v>4</v>
       </c>
       <c r="I282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -12499,7 +12499,7 @@
         <v>4</v>
       </c>
       <c r="I283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -12528,7 +12528,7 @@
         <v>4</v>
       </c>
       <c r="I284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -12557,7 +12557,7 @@
         <v>4</v>
       </c>
       <c r="I285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -12586,7 +12586,7 @@
         <v>4</v>
       </c>
       <c r="I286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -12615,7 +12615,7 @@
         <v>4</v>
       </c>
       <c r="I287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -12644,7 +12644,7 @@
         <v>4</v>
       </c>
       <c r="I288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -12673,7 +12673,7 @@
         <v>4</v>
       </c>
       <c r="I289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -12702,7 +12702,7 @@
         <v>4</v>
       </c>
       <c r="I290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -12731,7 +12731,7 @@
         <v>4</v>
       </c>
       <c r="I291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -12760,7 +12760,7 @@
         <v>4</v>
       </c>
       <c r="I292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -12789,7 +12789,7 @@
         <v>4</v>
       </c>
       <c r="I293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -12818,7 +12818,7 @@
         <v>4</v>
       </c>
       <c r="I294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -12847,7 +12847,7 @@
         <v>4</v>
       </c>
       <c r="I295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -12876,7 +12876,7 @@
         <v>4</v>
       </c>
       <c r="I296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -12905,7 +12905,7 @@
         <v>4</v>
       </c>
       <c r="I297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -12934,7 +12934,7 @@
         <v>4</v>
       </c>
       <c r="I298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -12963,7 +12963,7 @@
         <v>4</v>
       </c>
       <c r="I299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -12992,7 +12992,7 @@
         <v>4</v>
       </c>
       <c r="I300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -13021,7 +13021,7 @@
         <v>4</v>
       </c>
       <c r="I301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -13050,7 +13050,7 @@
         <v>4</v>
       </c>
       <c r="I302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -13079,7 +13079,7 @@
         <v>4</v>
       </c>
       <c r="I303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -13108,7 +13108,7 @@
         <v>4</v>
       </c>
       <c r="I304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -13137,7 +13137,7 @@
         <v>4</v>
       </c>
       <c r="I305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -13166,7 +13166,7 @@
         <v>4</v>
       </c>
       <c r="I306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -13195,7 +13195,7 @@
         <v>4</v>
       </c>
       <c r="I307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -13224,7 +13224,7 @@
         <v>4</v>
       </c>
       <c r="I308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:9">
@@ -13253,7 +13253,7 @@
         <v>4</v>
       </c>
       <c r="I309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -13282,7 +13282,7 @@
         <v>4</v>
       </c>
       <c r="I310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:9">
@@ -13311,7 +13311,7 @@
         <v>4</v>
       </c>
       <c r="I311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -13340,7 +13340,7 @@
         <v>4</v>
       </c>
       <c r="I312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:9">
@@ -13369,7 +13369,7 @@
         <v>4</v>
       </c>
       <c r="I313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -13398,7 +13398,7 @@
         <v>4</v>
       </c>
       <c r="I314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -13427,7 +13427,7 @@
         <v>4</v>
       </c>
       <c r="I315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -13456,7 +13456,7 @@
         <v>4</v>
       </c>
       <c r="I316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:9">
@@ -13485,7 +13485,7 @@
         <v>4</v>
       </c>
       <c r="I317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:9">
@@ -13514,7 +13514,7 @@
         <v>4</v>
       </c>
       <c r="I318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:9">
@@ -13543,7 +13543,7 @@
         <v>4</v>
       </c>
       <c r="I319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:9">
@@ -13572,7 +13572,7 @@
         <v>4</v>
       </c>
       <c r="I320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -13601,7 +13601,7 @@
         <v>4</v>
       </c>
       <c r="I321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -13630,7 +13630,7 @@
         <v>4</v>
       </c>
       <c r="I322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -13659,7 +13659,7 @@
         <v>4</v>
       </c>
       <c r="I323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -13688,7 +13688,7 @@
         <v>4</v>
       </c>
       <c r="I324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -13717,7 +13717,7 @@
         <v>4</v>
       </c>
       <c r="I325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -13746,7 +13746,7 @@
         <v>4</v>
       </c>
       <c r="I326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -13775,7 +13775,7 @@
         <v>4</v>
       </c>
       <c r="I327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -13804,7 +13804,7 @@
         <v>4</v>
       </c>
       <c r="I328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -13833,7 +13833,7 @@
         <v>4</v>
       </c>
       <c r="I329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -13862,7 +13862,7 @@
         <v>4</v>
       </c>
       <c r="I330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -13891,7 +13891,7 @@
         <v>4</v>
       </c>
       <c r="I331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -13920,7 +13920,7 @@
         <v>4</v>
       </c>
       <c r="I332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -13949,7 +13949,7 @@
         <v>4</v>
       </c>
       <c r="I333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -13978,7 +13978,7 @@
         <v>4</v>
       </c>
       <c r="I334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -14007,7 +14007,7 @@
         <v>4</v>
       </c>
       <c r="I335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -14036,7 +14036,7 @@
         <v>4</v>
       </c>
       <c r="I336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -14065,7 +14065,7 @@
         <v>4</v>
       </c>
       <c r="I337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -14094,7 +14094,7 @@
         <v>4</v>
       </c>
       <c r="I338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -14123,7 +14123,7 @@
         <v>4</v>
       </c>
       <c r="I339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -14152,7 +14152,7 @@
         <v>4</v>
       </c>
       <c r="I340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -14181,7 +14181,7 @@
         <v>4</v>
       </c>
       <c r="I341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -14210,7 +14210,7 @@
         <v>4</v>
       </c>
       <c r="I342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -14239,7 +14239,7 @@
         <v>4</v>
       </c>
       <c r="I343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -14268,7 +14268,7 @@
         <v>4</v>
       </c>
       <c r="I344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -14297,7 +14297,7 @@
         <v>4</v>
       </c>
       <c r="I345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -14326,7 +14326,7 @@
         <v>4</v>
       </c>
       <c r="I346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -14355,7 +14355,7 @@
         <v>4</v>
       </c>
       <c r="I347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -14384,7 +14384,7 @@
         <v>4</v>
       </c>
       <c r="I348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -14413,7 +14413,7 @@
         <v>4</v>
       </c>
       <c r="I349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -14442,7 +14442,7 @@
         <v>4</v>
       </c>
       <c r="I350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -14471,7 +14471,7 @@
         <v>4</v>
       </c>
       <c r="I351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -14500,7 +14500,7 @@
         <v>4</v>
       </c>
       <c r="I352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -14529,7 +14529,7 @@
         <v>4</v>
       </c>
       <c r="I353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -14558,7 +14558,7 @@
         <v>4</v>
       </c>
       <c r="I354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -14587,7 +14587,7 @@
         <v>4</v>
       </c>
       <c r="I355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -14616,7 +14616,7 @@
         <v>4</v>
       </c>
       <c r="I356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -14645,7 +14645,7 @@
         <v>4</v>
       </c>
       <c r="I357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -14674,7 +14674,7 @@
         <v>4</v>
       </c>
       <c r="I358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -14703,7 +14703,7 @@
         <v>4</v>
       </c>
       <c r="I359" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -14732,7 +14732,7 @@
         <v>4</v>
       </c>
       <c r="I360" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -14761,7 +14761,7 @@
         <v>4</v>
       </c>
       <c r="I361" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -14790,7 +14790,7 @@
         <v>4</v>
       </c>
       <c r="I362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -14819,7 +14819,7 @@
         <v>4</v>
       </c>
       <c r="I363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -14848,7 +14848,7 @@
         <v>4</v>
       </c>
       <c r="I364" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -14877,7 +14877,7 @@
         <v>4</v>
       </c>
       <c r="I365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -14906,7 +14906,7 @@
         <v>4</v>
       </c>
       <c r="I366" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -14935,7 +14935,7 @@
         <v>4</v>
       </c>
       <c r="I367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -14964,7 +14964,7 @@
         <v>4</v>
       </c>
       <c r="I368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -14993,7 +14993,7 @@
         <v>4</v>
       </c>
       <c r="I369" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -15022,7 +15022,7 @@
         <v>4</v>
       </c>
       <c r="I370" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -15051,7 +15051,7 @@
         <v>4</v>
       </c>
       <c r="I371" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -15080,7 +15080,7 @@
         <v>4</v>
       </c>
       <c r="I372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -15109,7 +15109,7 @@
         <v>4</v>
       </c>
       <c r="I373" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -15138,7 +15138,7 @@
         <v>4</v>
       </c>
       <c r="I374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -15167,7 +15167,7 @@
         <v>4</v>
       </c>
       <c r="I375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -15196,7 +15196,7 @@
         <v>4</v>
       </c>
       <c r="I376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -15225,7 +15225,7 @@
         <v>4</v>
       </c>
       <c r="I377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:9">
@@ -15254,7 +15254,7 @@
         <v>4</v>
       </c>
       <c r="I378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -15283,7 +15283,7 @@
         <v>4</v>
       </c>
       <c r="I379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:9">
@@ -15312,7 +15312,7 @@
         <v>4</v>
       </c>
       <c r="I380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -15341,7 +15341,7 @@
         <v>4</v>
       </c>
       <c r="I381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -15370,7 +15370,7 @@
         <v>4</v>
       </c>
       <c r="I382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:9">
@@ -15399,7 +15399,7 @@
         <v>4</v>
       </c>
       <c r="I383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -15428,7 +15428,7 @@
         <v>4</v>
       </c>
       <c r="I384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:9">
@@ -15457,7 +15457,7 @@
         <v>4</v>
       </c>
       <c r="I385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:9">
@@ -15486,7 +15486,7 @@
         <v>4</v>
       </c>
       <c r="I386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:9">
@@ -15515,7 +15515,7 @@
         <v>4</v>
       </c>
       <c r="I387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:9">
@@ -15544,7 +15544,7 @@
         <v>4</v>
       </c>
       <c r="I388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:9">
@@ -15573,7 +15573,7 @@
         <v>4</v>
       </c>
       <c r="I389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:9">
@@ -15602,7 +15602,7 @@
         <v>4</v>
       </c>
       <c r="I390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -15631,7 +15631,7 @@
         <v>4</v>
       </c>
       <c r="I391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:9">
@@ -15660,7 +15660,7 @@
         <v>4</v>
       </c>
       <c r="I392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:9">
@@ -15689,7 +15689,7 @@
         <v>4</v>
       </c>
       <c r="I393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:9">
@@ -15718,7 +15718,7 @@
         <v>4</v>
       </c>
       <c r="I394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -15747,7 +15747,7 @@
         <v>4</v>
       </c>
       <c r="I395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:9">
@@ -15776,7 +15776,7 @@
         <v>4</v>
       </c>
       <c r="I396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:9">
@@ -15805,7 +15805,7 @@
         <v>4</v>
       </c>
       <c r="I397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:9">
@@ -15834,7 +15834,7 @@
         <v>4</v>
       </c>
       <c r="I398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:9">
@@ -15863,7 +15863,7 @@
         <v>4</v>
       </c>
       <c r="I399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:9">
@@ -15892,7 +15892,7 @@
         <v>4</v>
       </c>
       <c r="I400" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:9">
@@ -15921,7 +15921,7 @@
         <v>4</v>
       </c>
       <c r="I401" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:9">
@@ -15950,7 +15950,7 @@
         <v>4</v>
       </c>
       <c r="I402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:9">
@@ -15979,7 +15979,7 @@
         <v>4</v>
       </c>
       <c r="I403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:9">
@@ -16008,7 +16008,7 @@
         <v>4</v>
       </c>
       <c r="I404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:9">
@@ -16037,7 +16037,7 @@
         <v>4</v>
       </c>
       <c r="I405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:9">
@@ -16066,7 +16066,7 @@
         <v>4</v>
       </c>
       <c r="I406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:9">
@@ -16095,7 +16095,7 @@
         <v>4</v>
       </c>
       <c r="I407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:9">
@@ -16124,7 +16124,7 @@
         <v>4</v>
       </c>
       <c r="I408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:9">
@@ -16153,7 +16153,7 @@
         <v>4</v>
       </c>
       <c r="I409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:9">
@@ -16182,7 +16182,7 @@
         <v>4</v>
       </c>
       <c r="I410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:9">
@@ -16211,7 +16211,7 @@
         <v>4</v>
       </c>
       <c r="I411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:9">
@@ -16240,7 +16240,7 @@
         <v>4</v>
       </c>
       <c r="I412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:9">
@@ -16269,7 +16269,7 @@
         <v>4</v>
       </c>
       <c r="I413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:9">
@@ -16298,7 +16298,7 @@
         <v>4</v>
       </c>
       <c r="I414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:9">
@@ -16327,7 +16327,7 @@
         <v>4</v>
       </c>
       <c r="I415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:9">
@@ -16356,7 +16356,7 @@
         <v>4</v>
       </c>
       <c r="I416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:9">
@@ -16385,7 +16385,7 @@
         <v>4</v>
       </c>
       <c r="I417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -16414,7 +16414,7 @@
         <v>4</v>
       </c>
       <c r="I418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:9">
@@ -16443,7 +16443,7 @@
         <v>4</v>
       </c>
       <c r="I419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:9">
@@ -16472,7 +16472,7 @@
         <v>4</v>
       </c>
       <c r="I420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:9">
@@ -16501,7 +16501,7 @@
         <v>4</v>
       </c>
       <c r="I421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:9">
@@ -16530,7 +16530,7 @@
         <v>4</v>
       </c>
       <c r="I422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:9">
@@ -16559,7 +16559,7 @@
         <v>4</v>
       </c>
       <c r="I423" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:9">
@@ -16588,7 +16588,7 @@
         <v>4</v>
       </c>
       <c r="I424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:9">
@@ -16617,7 +16617,7 @@
         <v>4</v>
       </c>
       <c r="I425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:9">
@@ -16646,7 +16646,7 @@
         <v>4</v>
       </c>
       <c r="I426" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:9">
@@ -16675,7 +16675,7 @@
         <v>4</v>
       </c>
       <c r="I427" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:9">
@@ -16704,7 +16704,7 @@
         <v>4</v>
       </c>
       <c r="I428" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:9">
@@ -16733,7 +16733,7 @@
         <v>4</v>
       </c>
       <c r="I429" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:9">
@@ -16762,7 +16762,7 @@
         <v>4</v>
       </c>
       <c r="I430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:9">
@@ -16791,7 +16791,7 @@
         <v>4</v>
       </c>
       <c r="I431" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:9">
@@ -16820,7 +16820,7 @@
         <v>4</v>
       </c>
       <c r="I432" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:9">
@@ -16849,7 +16849,7 @@
         <v>4</v>
       </c>
       <c r="I433" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:9">
@@ -16878,7 +16878,7 @@
         <v>4</v>
       </c>
       <c r="I434" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:9">
@@ -16907,7 +16907,7 @@
         <v>4</v>
       </c>
       <c r="I435" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:9">
@@ -16936,7 +16936,7 @@
         <v>4</v>
       </c>
       <c r="I436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:9">
@@ -16965,7 +16965,7 @@
         <v>4</v>
       </c>
       <c r="I437" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:9">
@@ -16994,7 +16994,7 @@
         <v>4</v>
       </c>
       <c r="I438" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:9">
@@ -17023,7 +17023,7 @@
         <v>4</v>
       </c>
       <c r="I439" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:9">
@@ -17052,7 +17052,7 @@
         <v>4</v>
       </c>
       <c r="I440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:9">
@@ -17081,7 +17081,7 @@
         <v>4</v>
       </c>
       <c r="I441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:9">
@@ -17110,7 +17110,7 @@
         <v>4</v>
       </c>
       <c r="I442" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:9">
@@ -17139,7 +17139,7 @@
         <v>4</v>
       </c>
       <c r="I443" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:9">
@@ -17168,7 +17168,7 @@
         <v>4</v>
       </c>
       <c r="I444" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:9">
@@ -17197,7 +17197,7 @@
         <v>4</v>
       </c>
       <c r="I445" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:9">
@@ -17226,7 +17226,7 @@
         <v>4</v>
       </c>
       <c r="I446" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:9">
@@ -17255,7 +17255,7 @@
         <v>4</v>
       </c>
       <c r="I447" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:9">
@@ -17284,7 +17284,7 @@
         <v>4</v>
       </c>
       <c r="I448" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:9">
@@ -17313,7 +17313,7 @@
         <v>4</v>
       </c>
       <c r="I449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:9">
@@ -17342,7 +17342,7 @@
         <v>4</v>
       </c>
       <c r="I450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:9">
@@ -17371,7 +17371,7 @@
         <v>4</v>
       </c>
       <c r="I451" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:9">
@@ -17400,7 +17400,7 @@
         <v>4</v>
       </c>
       <c r="I452" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:9">
@@ -17429,7 +17429,7 @@
         <v>4</v>
       </c>
       <c r="I453" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:9">
@@ -17458,7 +17458,7 @@
         <v>4</v>
       </c>
       <c r="I454" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:9">
@@ -17487,7 +17487,7 @@
         <v>4</v>
       </c>
       <c r="I455" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:9">
@@ -17516,7 +17516,7 @@
         <v>4</v>
       </c>
       <c r="I456" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:9">
@@ -17545,7 +17545,7 @@
         <v>4</v>
       </c>
       <c r="I457" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:9">
@@ -17574,7 +17574,7 @@
         <v>4</v>
       </c>
       <c r="I458" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:9">
@@ -17603,7 +17603,7 @@
         <v>4</v>
       </c>
       <c r="I459" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:9">
@@ -17632,7 +17632,7 @@
         <v>4</v>
       </c>
       <c r="I460" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:9">
@@ -17661,7 +17661,7 @@
         <v>4</v>
       </c>
       <c r="I461" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:9">
@@ -17690,7 +17690,7 @@
         <v>4</v>
       </c>
       <c r="I462" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:9">
@@ -17719,7 +17719,7 @@
         <v>4</v>
       </c>
       <c r="I463" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:9">
@@ -17748,7 +17748,7 @@
         <v>4</v>
       </c>
       <c r="I464" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:9">
@@ -17777,7 +17777,7 @@
         <v>4</v>
       </c>
       <c r="I465" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:9">
@@ -17806,7 +17806,7 @@
         <v>4</v>
       </c>
       <c r="I466" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:9">
@@ -17835,7 +17835,7 @@
         <v>4</v>
       </c>
       <c r="I467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:9">
@@ -17864,7 +17864,7 @@
         <v>4</v>
       </c>
       <c r="I468" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:9">
@@ -17893,7 +17893,7 @@
         <v>4</v>
       </c>
       <c r="I469" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:9">
@@ -17922,7 +17922,7 @@
         <v>4</v>
       </c>
       <c r="I470" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:9">
@@ -17951,7 +17951,7 @@
         <v>4</v>
       </c>
       <c r="I471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:9">
@@ -17980,7 +17980,7 @@
         <v>4</v>
       </c>
       <c r="I472" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:9">
@@ -18009,7 +18009,7 @@
         <v>4</v>
       </c>
       <c r="I473" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:9">
@@ -18038,7 +18038,7 @@
         <v>4</v>
       </c>
       <c r="I474" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:9">
@@ -18067,7 +18067,7 @@
         <v>4</v>
       </c>
       <c r="I475" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:9">
@@ -18096,7 +18096,7 @@
         <v>4</v>
       </c>
       <c r="I476" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:9">
@@ -18125,7 +18125,7 @@
         <v>4</v>
       </c>
       <c r="I477" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:9">
@@ -18154,7 +18154,7 @@
         <v>4</v>
       </c>
       <c r="I478" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:9">
@@ -18183,7 +18183,7 @@
         <v>4</v>
       </c>
       <c r="I479" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:9">
@@ -18212,7 +18212,7 @@
         <v>4</v>
       </c>
       <c r="I480" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:9">
@@ -18241,7 +18241,7 @@
         <v>4</v>
       </c>
       <c r="I481" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:9">
@@ -18270,7 +18270,7 @@
         <v>4</v>
       </c>
       <c r="I482" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:9">
@@ -18299,7 +18299,7 @@
         <v>4</v>
       </c>
       <c r="I483" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:9">
@@ -18328,7 +18328,7 @@
         <v>4</v>
       </c>
       <c r="I484" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:9">
@@ -18357,7 +18357,7 @@
         <v>4</v>
       </c>
       <c r="I485" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:9">
@@ -18386,7 +18386,7 @@
         <v>4</v>
       </c>
       <c r="I486" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:9">
@@ -18415,7 +18415,7 @@
         <v>4</v>
       </c>
       <c r="I487" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:9">
@@ -18444,7 +18444,7 @@
         <v>4</v>
       </c>
       <c r="I488" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:9">
@@ -18473,7 +18473,7 @@
         <v>4</v>
       </c>
       <c r="I489" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:9">
@@ -18502,7 +18502,7 @@
         <v>4</v>
       </c>
       <c r="I490" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:9">
@@ -18531,7 +18531,7 @@
         <v>4</v>
       </c>
       <c r="I491" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:9">
@@ -18560,7 +18560,7 @@
         <v>4</v>
       </c>
       <c r="I492" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:9">
@@ -18589,7 +18589,7 @@
         <v>4</v>
       </c>
       <c r="I493" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:9">
@@ -18618,7 +18618,7 @@
         <v>4</v>
       </c>
       <c r="I494" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:9">
@@ -18647,7 +18647,7 @@
         <v>4</v>
       </c>
       <c r="I495" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:9">
@@ -18676,7 +18676,7 @@
         <v>4</v>
       </c>
       <c r="I496" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:9">
@@ -18705,7 +18705,7 @@
         <v>4</v>
       </c>
       <c r="I497" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:9">
@@ -18734,7 +18734,7 @@
         <v>4</v>
       </c>
       <c r="I498" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:9">
@@ -18763,7 +18763,7 @@
         <v>4</v>
       </c>
       <c r="I499" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:9">
@@ -18792,7 +18792,7 @@
         <v>4</v>
       </c>
       <c r="I500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:9">
@@ -18821,7 +18821,7 @@
         <v>4</v>
       </c>
       <c r="I501" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:9">
@@ -18850,7 +18850,7 @@
         <v>4</v>
       </c>
       <c r="I502" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:9">
@@ -18879,7 +18879,7 @@
         <v>4</v>
       </c>
       <c r="I503" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:9">
@@ -18908,7 +18908,7 @@
         <v>4</v>
       </c>
       <c r="I504" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:9">
@@ -18937,7 +18937,7 @@
         <v>4</v>
       </c>
       <c r="I505" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:9">
@@ -18966,7 +18966,7 @@
         <v>4</v>
       </c>
       <c r="I506" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:9">
@@ -18995,7 +18995,7 @@
         <v>4</v>
       </c>
       <c r="I507" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:9">
@@ -19024,7 +19024,7 @@
         <v>4</v>
       </c>
       <c r="I508" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:9">
@@ -19053,7 +19053,7 @@
         <v>4</v>
       </c>
       <c r="I509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:9">
@@ -19082,7 +19082,7 @@
         <v>4</v>
       </c>
       <c r="I510" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:9">
@@ -19111,7 +19111,7 @@
         <v>4</v>
       </c>
       <c r="I511" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:9">
@@ -19140,7 +19140,7 @@
         <v>4</v>
       </c>
       <c r="I512" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:9">
@@ -19169,7 +19169,7 @@
         <v>4</v>
       </c>
       <c r="I513" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:9">
@@ -19198,7 +19198,7 @@
         <v>4</v>
       </c>
       <c r="I514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:9">
@@ -19227,7 +19227,7 @@
         <v>4</v>
       </c>
       <c r="I515" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:9">
@@ -19256,7 +19256,7 @@
         <v>4</v>
       </c>
       <c r="I516" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:9">
@@ -19285,7 +19285,7 @@
         <v>4</v>
       </c>
       <c r="I517" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:9">
@@ -19314,7 +19314,7 @@
         <v>4</v>
       </c>
       <c r="I518" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:9">
@@ -19343,7 +19343,7 @@
         <v>4</v>
       </c>
       <c r="I519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:9">
@@ -19372,7 +19372,7 @@
         <v>4</v>
       </c>
       <c r="I520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:9">
@@ -19401,7 +19401,7 @@
         <v>4</v>
       </c>
       <c r="I521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:9">
@@ -19430,7 +19430,7 @@
         <v>4</v>
       </c>
       <c r="I522" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:9">
@@ -19459,7 +19459,7 @@
         <v>4</v>
       </c>
       <c r="I523" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:9">
@@ -19488,7 +19488,7 @@
         <v>4</v>
       </c>
       <c r="I524" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:9">
@@ -19517,7 +19517,7 @@
         <v>4</v>
       </c>
       <c r="I525" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:9">
@@ -19546,7 +19546,7 @@
         <v>4</v>
       </c>
       <c r="I526" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:9">
@@ -19575,7 +19575,7 @@
         <v>4</v>
       </c>
       <c r="I527" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:9">
@@ -19604,7 +19604,7 @@
         <v>4</v>
       </c>
       <c r="I528" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:9">
@@ -19633,7 +19633,7 @@
         <v>4</v>
       </c>
       <c r="I529" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:9">
@@ -19662,7 +19662,7 @@
         <v>4</v>
       </c>
       <c r="I530" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:9">
@@ -19691,7 +19691,7 @@
         <v>4</v>
       </c>
       <c r="I531" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:9">
@@ -19720,7 +19720,7 @@
         <v>4</v>
       </c>
       <c r="I532" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:9">
@@ -19749,7 +19749,7 @@
         <v>4</v>
       </c>
       <c r="I533" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:9">
@@ -19778,7 +19778,7 @@
         <v>4</v>
       </c>
       <c r="I534" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:9">
@@ -19807,7 +19807,7 @@
         <v>4</v>
       </c>
       <c r="I535" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:9">
@@ -19836,7 +19836,7 @@
         <v>4</v>
       </c>
       <c r="I536" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:9">
@@ -19865,7 +19865,7 @@
         <v>4</v>
       </c>
       <c r="I537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:9">
@@ -19894,7 +19894,7 @@
         <v>4</v>
       </c>
       <c r="I538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:9">
@@ -19923,7 +19923,7 @@
         <v>4</v>
       </c>
       <c r="I539" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:9">
@@ -19952,7 +19952,7 @@
         <v>4</v>
       </c>
       <c r="I540" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:9">
@@ -19981,7 +19981,7 @@
         <v>4</v>
       </c>
       <c r="I541" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:9">
@@ -20010,7 +20010,7 @@
         <v>4</v>
       </c>
       <c r="I542" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:9">
@@ -20039,7 +20039,7 @@
         <v>4</v>
       </c>
       <c r="I543" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:9">
@@ -20068,7 +20068,7 @@
         <v>4</v>
       </c>
       <c r="I544" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:9">
@@ -20097,7 +20097,7 @@
         <v>4</v>
       </c>
       <c r="I545" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:9">
@@ -20126,7 +20126,7 @@
         <v>4</v>
       </c>
       <c r="I546" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:9">
@@ -20155,7 +20155,7 @@
         <v>4</v>
       </c>
       <c r="I547" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:9">
@@ -20184,7 +20184,7 @@
         <v>4</v>
       </c>
       <c r="I548" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:9">
@@ -20213,7 +20213,7 @@
         <v>4</v>
       </c>
       <c r="I549" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:9">
@@ -20242,7 +20242,7 @@
         <v>4</v>
       </c>
       <c r="I550" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:9">
@@ -20271,7 +20271,7 @@
         <v>4</v>
       </c>
       <c r="I551" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:9">
@@ -20300,7 +20300,7 @@
         <v>4</v>
       </c>
       <c r="I552" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:9">
@@ -20329,7 +20329,7 @@
         <v>4</v>
       </c>
       <c r="I553" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:9">
@@ -20358,7 +20358,7 @@
         <v>4</v>
       </c>
       <c r="I554" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:9">
@@ -20387,7 +20387,7 @@
         <v>4</v>
       </c>
       <c r="I555" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:9">
@@ -20416,7 +20416,7 @@
         <v>4</v>
       </c>
       <c r="I556" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:9">
@@ -20445,7 +20445,7 @@
         <v>4</v>
       </c>
       <c r="I557" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:9">
@@ -20474,7 +20474,7 @@
         <v>4</v>
       </c>
       <c r="I558" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:9">
@@ -20503,7 +20503,7 @@
         <v>4</v>
       </c>
       <c r="I559" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:9">
@@ -20532,7 +20532,7 @@
         <v>4</v>
       </c>
       <c r="I560" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:9">
@@ -20561,7 +20561,7 @@
         <v>4</v>
       </c>
       <c r="I561" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:9">
@@ -20590,7 +20590,7 @@
         <v>4</v>
       </c>
       <c r="I562" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:9">
@@ -20619,7 +20619,7 @@
         <v>4</v>
       </c>
       <c r="I563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:9">
@@ -20648,7 +20648,7 @@
         <v>4</v>
       </c>
       <c r="I564" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:9">
@@ -20677,7 +20677,7 @@
         <v>4</v>
       </c>
       <c r="I565" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:9">
@@ -20706,7 +20706,7 @@
         <v>4</v>
       </c>
       <c r="I566" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:9">
@@ -20735,7 +20735,7 @@
         <v>4</v>
       </c>
       <c r="I567" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:9">
@@ -20764,7 +20764,7 @@
         <v>4</v>
       </c>
       <c r="I568" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:9">
@@ -20793,7 +20793,7 @@
         <v>4</v>
       </c>
       <c r="I569" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:9">
@@ -20822,7 +20822,7 @@
         <v>4</v>
       </c>
       <c r="I570" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:9">
@@ -20851,7 +20851,7 @@
         <v>4</v>
       </c>
       <c r="I571" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:9">
@@ -20880,7 +20880,7 @@
         <v>4</v>
       </c>
       <c r="I572" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:9">
@@ -20909,7 +20909,7 @@
         <v>4</v>
       </c>
       <c r="I573" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:9">
@@ -20938,7 +20938,7 @@
         <v>4</v>
       </c>
       <c r="I574" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:9">
@@ -20967,7 +20967,7 @@
         <v>4</v>
       </c>
       <c r="I575" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:9">
@@ -20996,7 +20996,7 @@
         <v>4</v>
       </c>
       <c r="I576" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:9">
@@ -21025,7 +21025,7 @@
         <v>4</v>
       </c>
       <c r="I577" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:9">
@@ -21054,7 +21054,7 @@
         <v>4</v>
       </c>
       <c r="I578" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:9">
@@ -21083,7 +21083,7 @@
         <v>4</v>
       </c>
       <c r="I579" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:9">
@@ -21112,7 +21112,7 @@
         <v>4</v>
       </c>
       <c r="I580" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:9">
@@ -21141,7 +21141,7 @@
         <v>4</v>
       </c>
       <c r="I581" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:9">
@@ -21170,7 +21170,7 @@
         <v>4</v>
       </c>
       <c r="I582" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:9">
@@ -21199,7 +21199,7 @@
         <v>4</v>
       </c>
       <c r="I583" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:9">
@@ -21228,7 +21228,7 @@
         <v>4</v>
       </c>
       <c r="I584" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:9">
@@ -21257,7 +21257,7 @@
         <v>4</v>
       </c>
       <c r="I585" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:9">
@@ -21286,7 +21286,7 @@
         <v>4</v>
       </c>
       <c r="I586" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:9">
@@ -21315,7 +21315,7 @@
         <v>4</v>
       </c>
       <c r="I587" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:9">
@@ -21344,7 +21344,7 @@
         <v>4</v>
       </c>
       <c r="I588" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:9">
@@ -21373,7 +21373,7 @@
         <v>4</v>
       </c>
       <c r="I589" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:9">
@@ -21402,7 +21402,7 @@
         <v>4</v>
       </c>
       <c r="I590" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:9">
@@ -21431,7 +21431,7 @@
         <v>4</v>
       </c>
       <c r="I591" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:9">
@@ -21460,7 +21460,7 @@
         <v>4</v>
       </c>
       <c r="I592" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:9">
@@ -21489,7 +21489,7 @@
         <v>4</v>
       </c>
       <c r="I593" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:9">
@@ -21518,7 +21518,7 @@
         <v>4</v>
       </c>
       <c r="I594" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:9">
@@ -21547,7 +21547,7 @@
         <v>4</v>
       </c>
       <c r="I595" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:9">
@@ -21576,7 +21576,7 @@
         <v>4</v>
       </c>
       <c r="I596" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:9">
@@ -21605,7 +21605,7 @@
         <v>4</v>
       </c>
       <c r="I597" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:9">
@@ -21634,7 +21634,7 @@
         <v>4</v>
       </c>
       <c r="I598" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:9">
@@ -21663,7 +21663,7 @@
         <v>4</v>
       </c>
       <c r="I599" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:9">
@@ -21692,7 +21692,7 @@
         <v>4</v>
       </c>
       <c r="I600" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:9">
@@ -21721,7 +21721,7 @@
         <v>4</v>
       </c>
       <c r="I601" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:9">
@@ -21750,7 +21750,7 @@
         <v>4</v>
       </c>
       <c r="I602" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:9">
@@ -21779,7 +21779,7 @@
         <v>4</v>
       </c>
       <c r="I603" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:9">
@@ -21808,7 +21808,7 @@
         <v>4</v>
       </c>
       <c r="I604" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:9">
@@ -21837,7 +21837,7 @@
         <v>4</v>
       </c>
       <c r="I605" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:9">
@@ -21866,7 +21866,7 @@
         <v>4</v>
       </c>
       <c r="I606" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:9">
@@ -21895,7 +21895,7 @@
         <v>4</v>
       </c>
       <c r="I607" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:9">
@@ -21924,7 +21924,7 @@
         <v>4</v>
       </c>
       <c r="I608" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:9">
@@ -21953,7 +21953,7 @@
         <v>4</v>
       </c>
       <c r="I609" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:9">
@@ -21982,7 +21982,7 @@
         <v>4</v>
       </c>
       <c r="I610" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:9">
@@ -22011,7 +22011,7 @@
         <v>4</v>
       </c>
       <c r="I611" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:9">
@@ -22040,7 +22040,7 @@
         <v>4</v>
       </c>
       <c r="I612" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:9">
@@ -22069,7 +22069,7 @@
         <v>4</v>
       </c>
       <c r="I613" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:9">
@@ -22098,7 +22098,7 @@
         <v>4</v>
       </c>
       <c r="I614" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:9">
@@ -22127,7 +22127,7 @@
         <v>4</v>
       </c>
       <c r="I615" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:9">
@@ -22156,7 +22156,7 @@
         <v>4</v>
       </c>
       <c r="I616" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:9">
@@ -22185,7 +22185,7 @@
         <v>4</v>
       </c>
       <c r="I617" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:9">
@@ -22214,7 +22214,7 @@
         <v>4</v>
       </c>
       <c r="I618" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:9">
@@ -22243,7 +22243,7 @@
         <v>4</v>
       </c>
       <c r="I619" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:9">
@@ -22272,7 +22272,7 @@
         <v>4</v>
       </c>
       <c r="I620" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:9">
@@ -22301,7 +22301,7 @@
         <v>4</v>
       </c>
       <c r="I621" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:9">
@@ -22330,7 +22330,7 @@
         <v>4</v>
       </c>
       <c r="I622" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:9">
@@ -22359,7 +22359,7 @@
         <v>4</v>
       </c>
       <c r="I623" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:9">
@@ -22388,7 +22388,7 @@
         <v>4</v>
       </c>
       <c r="I624" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:9">
@@ -22417,7 +22417,7 @@
         <v>4</v>
       </c>
       <c r="I625" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:9">
@@ -22446,7 +22446,7 @@
         <v>4</v>
       </c>
       <c r="I626" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:9">
@@ -22475,7 +22475,7 @@
         <v>4</v>
       </c>
       <c r="I627" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:9">
@@ -22504,7 +22504,7 @@
         <v>4</v>
       </c>
       <c r="I628" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:9">
@@ -22533,7 +22533,7 @@
         <v>4</v>
       </c>
       <c r="I629" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:9">
@@ -22562,7 +22562,7 @@
         <v>4</v>
       </c>
       <c r="I630" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:9">
@@ -22591,7 +22591,7 @@
         <v>4</v>
       </c>
       <c r="I631" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:9">
@@ -22620,7 +22620,7 @@
         <v>4</v>
       </c>
       <c r="I632" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:9">
@@ -22649,7 +22649,7 @@
         <v>4</v>
       </c>
       <c r="I633" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:9">
@@ -22678,7 +22678,7 @@
         <v>4</v>
       </c>
       <c r="I634" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:9">
@@ -22707,7 +22707,7 @@
         <v>4</v>
       </c>
       <c r="I635" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:9">
@@ -22736,7 +22736,7 @@
         <v>4</v>
       </c>
       <c r="I636" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:9">
@@ -22765,7 +22765,7 @@
         <v>4</v>
       </c>
       <c r="I637" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:9">
@@ -22794,7 +22794,7 @@
         <v>4</v>
       </c>
       <c r="I638" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:9">
@@ -22823,7 +22823,7 @@
         <v>4</v>
       </c>
       <c r="I639" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:9">
@@ -22852,7 +22852,7 @@
         <v>4</v>
       </c>
       <c r="I640" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:9">
@@ -22881,7 +22881,7 @@
         <v>4</v>
       </c>
       <c r="I641" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:9">
@@ -22910,7 +22910,7 @@
         <v>4</v>
       </c>
       <c r="I642" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:9">
@@ -22939,7 +22939,7 @@
         <v>4</v>
       </c>
       <c r="I643" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:9">
@@ -22968,7 +22968,7 @@
         <v>4</v>
       </c>
       <c r="I644" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:9">
@@ -22997,7 +22997,7 @@
         <v>4</v>
       </c>
       <c r="I645" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:9">
@@ -23026,7 +23026,7 @@
         <v>4</v>
       </c>
       <c r="I646" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:9">
@@ -23055,7 +23055,7 @@
         <v>4</v>
       </c>
       <c r="I647" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:9">
@@ -23084,7 +23084,7 @@
         <v>4</v>
       </c>
       <c r="I648" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:9">
@@ -23113,7 +23113,7 @@
         <v>4</v>
       </c>
       <c r="I649" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:9">
@@ -23142,7 +23142,7 @@
         <v>4</v>
       </c>
       <c r="I650" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:9">
@@ -23171,7 +23171,7 @@
         <v>4</v>
       </c>
       <c r="I651" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:9">
@@ -23200,7 +23200,7 @@
         <v>4</v>
       </c>
       <c r="I652" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:9">
@@ -23229,7 +23229,7 @@
         <v>4</v>
       </c>
       <c r="I653" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:9">
@@ -23258,7 +23258,7 @@
         <v>4</v>
       </c>
       <c r="I654" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:9">
@@ -23287,7 +23287,7 @@
         <v>4</v>
       </c>
       <c r="I655" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:9">
@@ -23316,7 +23316,7 @@
         <v>4</v>
       </c>
       <c r="I656" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:9">
@@ -23345,7 +23345,7 @@
         <v>4</v>
       </c>
       <c r="I657" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:9">
@@ -23374,7 +23374,7 @@
         <v>4</v>
       </c>
       <c r="I658" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:9">
@@ -23403,7 +23403,7 @@
         <v>4</v>
       </c>
       <c r="I659" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:9">
@@ -23432,7 +23432,7 @@
         <v>4</v>
       </c>
       <c r="I660" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:9">
@@ -23461,7 +23461,7 @@
         <v>4</v>
       </c>
       <c r="I661" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:9">
@@ -23490,7 +23490,7 @@
         <v>4</v>
       </c>
       <c r="I662" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:9">
@@ -23519,7 +23519,7 @@
         <v>4</v>
       </c>
       <c r="I663" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:9">
@@ -23548,7 +23548,7 @@
         <v>4</v>
       </c>
       <c r="I664" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:9">
@@ -23577,7 +23577,7 @@
         <v>4</v>
       </c>
       <c r="I665" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:9">
@@ -23606,7 +23606,7 @@
         <v>4</v>
       </c>
       <c r="I666" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:9">
@@ -23635,7 +23635,7 @@
         <v>4</v>
       </c>
       <c r="I667" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:9">
@@ -23664,7 +23664,7 @@
         <v>4</v>
       </c>
       <c r="I668" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:9">
@@ -23693,7 +23693,7 @@
         <v>4</v>
       </c>
       <c r="I669" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:9">
@@ -23722,7 +23722,7 @@
         <v>4</v>
       </c>
       <c r="I670" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:9">
@@ -23751,7 +23751,7 @@
         <v>4</v>
       </c>
       <c r="I671" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:9">
@@ -23780,7 +23780,7 @@
         <v>4</v>
       </c>
       <c r="I672" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:9">
@@ -23809,7 +23809,7 @@
         <v>4</v>
       </c>
       <c r="I673" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:9">
@@ -23838,7 +23838,7 @@
         <v>4</v>
       </c>
       <c r="I674" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:9">
@@ -23867,7 +23867,7 @@
         <v>4</v>
       </c>
       <c r="I675" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:9">
@@ -23896,7 +23896,7 @@
         <v>4</v>
       </c>
       <c r="I676" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:9">
@@ -23925,7 +23925,7 @@
         <v>4</v>
       </c>
       <c r="I677" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
